--- a/classification_of_payment_documents/example_table.xlsx
+++ b/classification_of_payment_documents/example_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasialavrova/diplom/bmstu_bachelor_qualification_work/classification_of_payment_documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25520C60-4A45-D740-BAA0-F89203737A67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7098D1A-98D6-3340-BBF7-C772C8BFEA2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15100" xr2:uid="{0D99C4A0-3FAD-3F4A-9C43-A9C82BCCA544}"/>
   </bookViews>
@@ -573,11 +573,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0A4823-B8C1-F54A-A299-81C21B5A1A62}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection sqref="A1:H50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="33" customWidth="1"/>
+    <col min="7" max="7" width="80.6640625" customWidth="1"/>
+    <col min="8" max="8" width="45" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">

--- a/classification_of_payment_documents/example_table.xlsx
+++ b/classification_of_payment_documents/example_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasialavrova/diplom/bmstu_bachelor_qualification_work/classification_of_payment_documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7098D1A-98D6-3340-BBF7-C772C8BFEA2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E777C9-FEF5-774D-B800-A294C8BC0EF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15100" xr2:uid="{0D99C4A0-3FAD-3F4A-9C43-A9C82BCCA544}"/>
   </bookViews>
@@ -574,7 +574,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G2" sqref="G2:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/classification_of_payment_documents/example_table.xlsx
+++ b/classification_of_payment_documents/example_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasialavrova/diplom/bmstu_bachelor_qualification_work/classification_of_payment_documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E777C9-FEF5-774D-B800-A294C8BC0EF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F32C120-200B-9C4E-BED9-3E80C1B3C8DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15100" xr2:uid="{0D99C4A0-3FAD-3F4A-9C43-A9C82BCCA544}"/>
+    <workbookView xWindow="760" yWindow="1000" windowWidth="27640" windowHeight="15100" xr2:uid="{0D99C4A0-3FAD-3F4A-9C43-A9C82BCCA544}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="269">
   <si>
     <t>Направление</t>
   </si>
@@ -202,6 +202,636 @@
   </si>
   <si>
     <t>ТЧЭ ВОР-КУР. УДЕРЖАНИЯ ИЗ ЗАР.ПЛАТЫ РАБОТНИКОВ ЗА 12/19Г. ПО ДОГ.СТРАХ.№3-ЛФ0121-360035266 ОТ 11.12.15Г. ЗУБЦОВ ЕВГЕНИЙ АНАТОЛЬЕВИЧ. 994,00 РУБ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>Перевод денежных средств с р/с</t>
+  </si>
+  <si>
+    <t>21212 ТП Базовый РКО: Комиссия за перевод денежных средств в др. банк 3 документа за 09/01/2020 поступивших по электронным каналам связи, НДС не обл.</t>
+  </si>
+  <si>
+    <t>Оплата по договору б/н от 11.09.2019  за аренду парковочных мест за январь  2020г., счет №554 от 24.12.2019 Сумма 18305-09 В т.ч. НДС  (20%) 3050-85</t>
+  </si>
+  <si>
+    <t>Оплата по договору аренды недвижимого имущества №48-12/15 от 16.12.2015 за январь 2020г... Счет №555 от 24.12.2019 Сумма 354820-08 В т.ч. НДС  (20%) 59136-68</t>
+  </si>
+  <si>
+    <t>Оплата по договору аренды недвижимого имущества №48-12/15 от 16.12.2015 за январь 2020г.. Счет №553 от 24.12.2019 Сумма 1419279-58 В т.ч. НДС  (20%) 236546-60</t>
+  </si>
+  <si>
+    <t>Перечисление в депозит по согл. № ДП 19-1-2/03-382 от 03.04.2019, сделка № ДП 19-1-2/03-382-1 от 09.01.2020 АО ВТБ Страхование жизни.</t>
+  </si>
+  <si>
+    <t>Перечисление в депозит по согл. № ДП 19-1-2/03-382 от 03.04.2019, сделка № ДП 19-1-2/03-382-б/н от 09.01.2020 АО ВТБ Страхование жизни.</t>
+  </si>
+  <si>
+    <t>Комиссия за внутрибанковские переводы в электронном виде АО "ВТБ Страхование жизни" по счету '40701810100000003885', за '09/01/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО "ВТБ Страхование жизни" по счету '40701810100000003885', за '09/01/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Перечисление денежных средств по ДОФР №1001149 от 30.07.2014 г. для совершения операций с ЦБ (T2). Сумма 992-50 Без налога (НДС)</t>
+  </si>
+  <si>
+    <t>Абонентская плата за декабрь 2019. по счету № 8426 от 02.12.2019 Сумма 3000-00 Без налога (НДС)</t>
+  </si>
+  <si>
+    <t>Транспортный налог организаций за 2019 год</t>
+  </si>
+  <si>
+    <t>Перечисление денежных средств на карты сотрудников  АО ВТБ Страхование жизни согласно реестра Z</t>
+  </si>
+  <si>
+    <t>Возврат ошибочно перечисленных денежных средств по реестру; Соглашение о платежах по переданному страховому портфелю от 01.11.2019 Сумма 329915-00 Без налога (НДС)</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО "ВТБ Страхование жизни" по счету '40701810100000003885', за '15/01/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Налог на доходы физических лиц за январь 2020 года</t>
+  </si>
+  <si>
+    <t>Возврат ошибочно перечисленных денежных средств по реестру; Соглашение о платежах по переданному страховому портфелю от 01.11.2019 Сумма 126099-00 Без налога (НДС)</t>
+  </si>
+  <si>
+    <t>65 ТП Базовый РКО: Комиссия за обслуживание системы "Клиент-Банк" за январь   2020 г. , НДС не обл.</t>
+  </si>
+  <si>
+    <t>Перечисление в депозит по согл. № ДП 19-1-2/03-382 от 03.04.2019, сделка № ДП 19-1-2/03-382-3 от 10.01.2020 АО ВТБ Страхование жизни.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО "ВТБ Страхование жизни" по счету '40701810100000003885', за '10/01/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>оплата по счету № НЛ/012541 от 04.12.2019. абонентская плата за телефонный номер за январь 2020 Сумма 1440-00 В т.ч. НДС  (20%) 240-00</t>
+  </si>
+  <si>
+    <t>Оплата по сч. №1-1120-2 и 1-1120-3 от 20.11.19.г  по договору № 03-07/02 от 22.05.2017г. за предрейсовый контроль тех. состояния транспортных средств за окт., нояб. 2019г. Сумма 3000-00 Без налога (НД</t>
+  </si>
+  <si>
+    <t>Возврат ошибочно перечисленных денежных средств по реестру; Соглашение о платежах по переданному страховому портфелю от 01.11.2019 Сумма 109550-00 Без налога (НДС)</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО "ВТБ Страхование жизни" по счету '40701810100000003885', за '13/01/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Возврат ошибочно перечисленных денежных средств по реестру; Соглашение о платежах по переданному страховому портфелю от 01.11.2019 Сумма 123462-00 Без налога (НДС)</t>
+  </si>
+  <si>
+    <t>21211 ТП Базовый РКО: Комиссия за перевод денежных средств в др. банк 1 документ за 14/01/2020 поступивших по электронным каналам связи, НДС не обл.</t>
+  </si>
+  <si>
+    <t>Вознаграждение управляющей компании за 2019 год по договору ДУ ю-577 от 06.04.2015, счет № 577-00000001 от 08.11.2019 Сумма 95806808-27 Без налога (НДС)</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО "ВТБ Страхование жизни" по счету '40701810100000003885', за '14/01/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Возврат ошибочно перечисленных денежных средств согласно заявления от 28.11.2019. Договор страхования 0342-030419834 расторгнут Сумма 17103-00 Без налога (НДС)</t>
+  </si>
+  <si>
+    <t>Возврат ошибочно перечисленных денежных средств по реестру; Соглашение о платежах по переданному страховому портфелю от 01.11.2019 Сумма 57864-30 Без налога (НДС)</t>
+  </si>
+  <si>
+    <t>Перечисление в депозит по согл. № ДП 19-1-2/03-382 от 03.04.2019, сделка № ДП 19-1-2/03-382-4 от 16.01.2020 АО ВТБ Страхование жизни.</t>
+  </si>
+  <si>
+    <t>Комиссия за внутрибанковские переводы в электронном виде АО "ВТБ Страхование жизни" по счету '40701810100000003885', за '16/01/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО "ВТБ Страхование жизни" по счету '40701810100000003885', за '16/01/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>##115801294## Оплата по счету 118308948/200 от 31.12.2019 за услуги связи за декабрь 2019 Сумма 1376-60 В т.ч. НДС  (20%) 229-43</t>
+  </si>
+  <si>
+    <t>лс 277386274016  оплата по счету 9694121452 от 31.12.2019. за услуги связи декабрь 2019 Сумма 1470-03 В т.ч. НДС  (20%) 245-00</t>
+  </si>
+  <si>
+    <t>лс 900700478620 Оплата по  Счету № 27-48883 от 31.12.2019 за предоставление виртуальной частной сети за декабрь 2019 Сумма 25075-75 В т.ч. НДС  (20%) 4179-29</t>
+  </si>
+  <si>
+    <t>Оплата по счету №912-Р8344 от 31.12.2019 за услуги связи за декабрь 2019 Сумма 29500-00 В т.ч. НДС  (20%) 4916-67</t>
+  </si>
+  <si>
+    <t>Услуги пультовой охраны имущества Заказчика за декабрь 2019г.Счет №429 от 31.12.19  по Дог. №252 от 01.01.2019 Сумма 35593-22 В т.ч. НДС  (20%) 5932-20</t>
+  </si>
+  <si>
+    <t>Оплата по договору ТП-ДУ-2019/4 от 01.02.2019 за услуги по обслуживанию системы ДУ за январь 2020., счет 2715 от 24.12.2019 Сумма 41000-00 Без налога (НДС)</t>
+  </si>
+  <si>
+    <t>Оплата по счету №4058 от 24.10.2019. за химчистку ковролина 26.10.19. Сумма 46716-74 В т.ч. НДС  (20%) 7786-12</t>
+  </si>
+  <si>
+    <t>л/с № 735029487 Оплата по счету 70001075435/200 от 31.12.2019. по договору № 15/89 от 26.05.14 абонентская плата за декабрь 2019 Сумма 52758-26 В т.ч. НДС  (20%) 8793-04</t>
+  </si>
+  <si>
+    <t>Оплата по счет№7655,7492,от 31.12.2019 необходимые расходы и услуги спецдепозитария по дог.№ 6/СК от 26.06.2015 Сумма 85385-09 Без налога (НДС)</t>
+  </si>
+  <si>
+    <t>Возврат ошибочно перечисленных денежных средств по реестру; Соглашение о платежах по переданному страховому портфелю от 01.11.2019 Сумма 97496-50 Без налога (НДС)</t>
+  </si>
+  <si>
+    <t>Пополнение счета Без НДС Сумма 1000000-00 Без НДС</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО "ВТБ Страхование жизни" по счету '40701810100000003885', за '17/01/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Возврат ошибочно перечисленных денежных средств по реестру; Соглашение о платежах по переданному страховому портфелю от 01.11.2019 Сумма 160469-00 Без налога (НДС)</t>
+  </si>
+  <si>
+    <t>Перечисление в депозит по согл. № ДП 19-1-2/03-382 от 03.04.2019, сделка № ДП 19-1-2/03-382-5 от 17.01.2020 АО ВТБ Страхование жизни.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО "ВТБ Страхование жизни" по счету '40701810100000003885', за '20/01/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Перечисление в депозит по согл. № ДП 19-1-2/03-382 от 03.04.2019, сделка № ДП 19-1-2/03-382-7 от 30.01.2020 АО ВТБ Страхование жизни.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО "ВТБ Страхование жизни" по счету '40701810100000003885', за '30/01/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>УК.Получение процентов по депозиту на р/с (без 91сч)</t>
+  </si>
+  <si>
+    <t>Выплата процентов АО ВТБ Страхование жизни за период с 10.01.2020 по 14.01.2020 по  согл. № ДП 19-1-2/03-382 от 03.04.2019, сделка № ДП 19-1-2/03-382-1 от 09.01.2020. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Выплата процентов АО ВТБ Страхование жизни за период с 10.01.2020 по 16.01.2020 по  согл. № ДП 19-1-2/03-382 от 03.04.2019, сделка № ДП 19-1-2/03-382-б/н от 09.01.2020. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Уплата процентов по депозитному договору №148-ГС/530300 от 27.06.2014 заяв.150 от 16.12.2019 за период с 17.12.2019 по 16.01.2020 АО ВТБ Страхование жизни. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Выплата процентов АО ВТБ Страхование жизни за период с 11.01.2020 по 17.01.2020 по  согл. № ДП 19-1-2/03-382 от 03.04.2019, сделка № ДП 19-1-2/03-382-3 от 10.01.2020. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Выплата процентов АО ВТБ Страхование жизни за период с 27.12.2019 по 09.01.2020 по  согл. № ДП 19-1-2/03-382 от 03.04.2019, сделка № ДП 19-1-2/03-382-108 от 26.12.2019. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Выплата процентов АО ВТБ Страхование жизни за период с 31.01.2020 по 06.02.2020 по  согл. № ДП 19-1-2/03-382 от 03.04.2019, сделка № ДП 19-1-2/03-382-7 от 30.01.2020. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>УК.Получение денежных средств по договору купли-продажи ЦБ</t>
+  </si>
+  <si>
+    <t>ПОГАШЕНИЕ ЦБ МИНФИН РОССИИ (НОМИНАЛЬНАЯ СТОИМОСТЬ 1ЦБ - 1 000РУБ.), ГРН 29011RMFS , КОЛ-ВО ЦБ - 960600ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>УК.Оплата услуг прочих проф.участников рынка ЦБ (брокеров, дилеров, биржи, депозитарий ГКО)</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '17/06/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>УК.Перевод  денежных средств с р/с на брокерский счет</t>
+  </si>
+  <si>
+    <t>Перечисление денежных средств по договору обслуживания на финансовых рынках № 1001233 от 10.04.2015г. для совершения операций с ценными бумагами на Московской бирже (субсчет 8U009/8U0014). Без НДС.</t>
+  </si>
+  <si>
+    <t>УК.Получение денежных средств на р/с от продажи валюты</t>
+  </si>
+  <si>
+    <t>Расчеты по конверсионным сделкам по курсу ВТБ USD/RUR 63.8600 (Курс Банка России 63.4720) согласно поручения N 1 от 10.02.2020 г. Акционерное общество ВТБ Капитал Управление активами</t>
+  </si>
+  <si>
+    <t>Расчеты по конверсионным сделкам по курсу ВТБ USD/RUR 63.9200 (Курс Банка России 63.4720) согласно поручения N 159888 от 10.02.2020 г. Акционерное общество ВТБ Капитал Управление активами</t>
+  </si>
+  <si>
+    <t>Расчеты по конверсионным сделкам по курсу ВТБ USD/RUR 76.6800 (Курс Банка России 73.8896) согласно поручения N 163392 от 18.03.2020 г. Акционерное общество ВТБ Капитал Управление активами</t>
+  </si>
+  <si>
+    <t>Расчеты по конверсионным сделкам по курсу ВТБ USD/RUR 74.8750 (Курс Банка России 73.1882) согласно поручения N 163015 от 16.03.2020 г. Акционерное общество ВТБ Капитал Управление активами</t>
+  </si>
+  <si>
+    <t>Расчеты по конверсионным сделкам по курсу ВТБ USD/RUR 74.5000 (Курс Банка России 67.5175) согласно поручения N 163014 от 10.03.2020 г. Акционерное общество ВТБ Капитал Управление активами</t>
+  </si>
+  <si>
+    <t>УК.Оплата вознаграждения УК</t>
+  </si>
+  <si>
+    <t>Плата за управление по договору ДУ-П250906 от 25.09.2006 за 4 квартал 2019 года. Акт сдачи-приемки оказанных услуг № 014-00000006 от 31.12.2019.  Базовое вознаграждение. НДС не облагается</t>
+  </si>
+  <si>
+    <t>Плата за успех по договору ДУ-П250906 от 25.09.2006 за 2019 года. Акт сдачи-приемки оказанных услуг № 014-00000005 от 31.12.2019. Дополнительное вознаграждение. НДС не облагается</t>
+  </si>
+  <si>
+    <t>УК.Получение денежных средств от погашения ЦБ на р/с</t>
+  </si>
+  <si>
+    <t>ПОГАШЕНИЕ ЦБ АО "ТРАНСМАШХОЛДИНГ" (НОМИНАЛЬНАЯ СТОИМОСТЬ 1ЦБ - 1 000РУБ.), ГРН 4B02-01-35992-H-001P , КОЛ-ВО ЦБ - 289143ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ПОГАШЕНИЕ ЦБ ВЭБ.РФ (НОМИНАЛЬНАЯ СТОИМОСТЬ 1ЦБ - 1 000РУБ.), ГРН 4B0 2-11-00004-T-001P , КОЛ-ВО ЦБ - 49400ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>УК.Оплата комиссии банка</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '05/02/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за внутрибанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '06/02/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '06/02/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия банка Ком.за срочный перевод рублей, по док.№159708 от 10.02.2020 согл.п.1.5.2.1.3.Тарифа Банка.Дог.б.сч.210414D17068654 от 21.04.2014.НДС не обл.</t>
+  </si>
+  <si>
+    <t>Комиссия банка Ком.за срочный перевод рублей, по док.№159897 от 10.02.2020 согл.п.1.5.2.1.3.Тарифа Банка.Дог.б.сч.210414D17068654 от 21.04.2014.НДС не обл.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '11/02/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '12/02/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '13/02/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '18/02/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '19/02/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '25/02/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '26/02/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '28/02/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за обслуживание счета, подключенного к системе "ДБО" АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '29/02/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '05/03/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия банка Ком.за срочный перевод рублей, по док.№163018 от 10.03.2020 согл.п.1.5.2.1.3.Тарифа Банка.Дог.б.сч.210414D17068654 от 21.04.2014.НДС не обл.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '13/03/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия банка Ком.за срочный перевод рублей, по док.№163358 от 17.03.2020 согл.п.1.5.2.1.3.Тарифа Банка.Дог.б.сч.210414D17068654 от 21.04.2014.НДС не обл.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '23/03/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Ком.за прием и исп.пл.пор.на пер.д.ср.со сч.кл.,пост.по СДБО на сч.,вед.в др.банках на тер.РФ,по док.№163667 от 23/03/2020  согл.п.1.5.2.1.1.Тарифа Банка.Дог.б.сч.210414D17068654 от 21/04/2014.НДС не</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '30/03/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за обслуживание счета, подключенного к системе "ДБО" АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '31/03/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия банка. Ком.за срочный перевод рублей, по док.№164311 от 06.04.2020 согл.п.1.5.2.1.3.Тарифа Банка.Дог.б.сч.210414D17068654 от 21.04.2014.НДС не обл.</t>
+  </si>
+  <si>
+    <t>Комиссия банка Ком.за срочный перевод рублей, по док.№165180 от 15.04.2020 согл.п.1.5.2.1.3.Тарифа Банка.Дог.б.сч.210414D17068654 от 21.04.2014.НДС не обл.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '21/04/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Ком.за прием и исп.пл.пор.на пер.д.ср.со сч.кл.,пост.по СДБО на сч.,вед.в др.банках на тер.РФ,по док.№166089 от 23/04/2020  согл.п.1.5.2.1.1.Тарифа Банка.Дог.б.сч.210414D17068654 от 21/04/2014.НДС не</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '23/04/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '28/04/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за обслуживание счета, подключенного к системе "ДБО" АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '30/04/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '06/05/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '13/05/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '14/05/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '19/05/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '21/05/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '26/05/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '28/05/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за обслуживание счета, подключенного к системе "ДБО" АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '31/05/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '01/06/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '02/06/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '03/06/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '10/06/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '16/06/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '18/06/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '23/06/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '25/06/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '26/06/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '29/06/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за обслуживание счета, подключенного к системе "ДБО" АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '30/06/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '03/07/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '07/07/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '08/07/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '13/07/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '16/07/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '23/07/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '24/07/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за обслуживание счета, подключенного к системе ДБО, за декабрь 2019 согл.п.1.2.4.1.Тарифа Банка.Дог.б.сч.N 111115D45742515 от 11/11/2015.НДС не обл.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '13/01/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '16/01/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '22/01/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '24/01/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '30/01/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за обслуживание счета, подключенного к системе "ДБО" АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '31/01/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>Комиссия за межбанковские переводы в электронном виде АО ВТБ Капитал Управление активами по счету '40701810616000124928', за '31/01/2020' согласно тарифам Банка. НДС не облагается.</t>
+  </si>
+  <si>
+    <t>УК.Получение процентов по остатку на р/с</t>
+  </si>
+  <si>
+    <t>Уплата процентов за период 17/04/20 - 17/04/20 на основании ДС по НСО №1 от 13/03/15 (Заявление №13 от 16/04/20) к Договору РКО №210414D17068654 от 21/04/14 АО ВТБ Капитал Управление активами . НДС не</t>
+  </si>
+  <si>
+    <t>Уплата процентов, начисленных по договору на размещение на расчетном счете денежных средств в форме неснижаемого остатка №436 от 16/04/2020</t>
+  </si>
+  <si>
+    <t>Уплата процентов, начисленных по договору на размещение на расчетном счете денежных средств в форме неснижаемого остатка №437 от 17/04/2020</t>
+  </si>
+  <si>
+    <t>Уплата процентов за период 18/04/20 - 20/04/20 на основании ДС по НСО №1 от 13/03/15 (Заявление №14 от 17/04/20) к Договору РКО №210414D17068654 от 21/04/14 АО ВТБ Капитал Управление активами . НДС не</t>
+  </si>
+  <si>
+    <t>Уплата процентов, начисленных по договору на размещение на расчетном счете денежных средств в форме неснижаемого остатка №442 от 29/04/2020</t>
+  </si>
+  <si>
+    <t>Уплата процентов, начисленных по договору на размещение на расчетном счете денежных средств в форме неснижаемого остатка №443 от 30/04/2020</t>
+  </si>
+  <si>
+    <t>Уплата процентов, начисленных по договору на размещение на расчетном счете денежных средств в форме неснижаемого остатка №444 от 08/05/2020</t>
+  </si>
+  <si>
+    <t>Уплата процентов, начисленных по договору на размещение на расчетном счете денежных средств в форме неснижаемого остатка №515 от 12/05/2020</t>
+  </si>
+  <si>
+    <t>Уплата процентов, начисленных по договору на размещение на расчетном счете денежных средств в форме неснижаемого остатка №516 от 04/06/2020</t>
+  </si>
+  <si>
+    <t>Уплата процентов, начисленных по договору на размещение на расчетном счете денежных средств в форме неснижаемого остатка №517 от 05/06/2020</t>
+  </si>
+  <si>
+    <t>Уплата процентов, начисленных по договору на размещение на расчетном счете денежных средств в форме неснижаемого остатка №438 от 20/04/2020</t>
+  </si>
+  <si>
+    <t>Уплата процентов за период 21/04/20 - 21/04/20 на основании ДС по НСО №1 от 13/03/15 (Заявление №15 от 20/04/20) к Договору РКО №210414D17068654 от 21/04/14 АО ВТБ Капитал Управление активами . НДС не</t>
+  </si>
+  <si>
+    <t>Уплата процентов за период 22/04/20 - 22/04/20 на основании ДС по НСО №1 от 13/03/15 (Заявление №16 от 21/04/20) к Договору РКО №210414D17068654 от 21/04/14 АО ВТБ Капитал Управление активами . НДС не</t>
+  </si>
+  <si>
+    <t>Уплата процентов за период 23/04/20 - 23/04/20 на основании ДС по НСО №1 от 13/03/15 (Заявление №17 от 22/04/20) к Договору РКО №210414D17068654 от 21/04/14 АО ВТБ Капитал Управление активами . НДС не</t>
+  </si>
+  <si>
+    <t>Уплата процентов, начисленных по договору на размещение на расчетном счете денежных средств в форме неснижаемого остатка №439 от 22/04/2020</t>
+  </si>
+  <si>
+    <t>Уплата процентов, начисленных по договору на размещение на расчетном счете денежных средств в форме неснижаемого остатка №440 от 24/04/2020</t>
+  </si>
+  <si>
+    <t>Уплата процентов, начисленных по договору на размещение на расчетном счете денежных средств в форме неснижаемого остатка №441 от 27/04/2020</t>
+  </si>
+  <si>
+    <t>Уплата процентов, начисленных по договору на размещение на расчетном счете денежных средств в форме неснижаемого остатка №521 от 22/07/2020</t>
+  </si>
+  <si>
+    <t>Уплата процентов, начисленных по договору на размещение на расчетном счете денежных средств в форме неснижаемого остатка №519 от 09/06/2020</t>
+  </si>
+  <si>
+    <t>Уплата процентов, начисленных по договору на размещение на расчетном счете денежных средств в форме неснижаемого остатка №518 от 08/06/2020</t>
+  </si>
+  <si>
+    <t>Уплата процентов, начисленных по договору на размещение на расчетном счете денежных средств в форме неснижаемого остатка №520 от 22/06/2020</t>
+  </si>
+  <si>
+    <t>Уплата процентов, начисленных по договору на размещение на расчетном счете денежных средств в форме неснижаемого остатка №560 от 10/07/2020</t>
+  </si>
+  <si>
+    <t>Уплата процентов, начисленных по договору на размещение на расчетном счете денежных средств в форме неснижаемого остатка №410 от 04/02/2020</t>
+  </si>
+  <si>
+    <t>Уплата процентов, начисленных по договору на размещение на расчетном счете денежных средств в форме неснижаемого остатка №419 от 27/12/2019</t>
+  </si>
+  <si>
+    <t>Уплата процентов, начисленных по договору на размещение на расчетном счете денежных средств в форме неснижаемого остатка №514 от 09/01/2020</t>
+  </si>
+  <si>
+    <t>Уплата процентов, начисленных по договору на размещение на расчетном счете денежных средств в форме неснижаемого остатка №549 от 10/01/2020</t>
+  </si>
+  <si>
+    <t>Уплата процентов, начисленных по договору на размещение на расчетном счете денежных средств в форме неснижаемого остатка №420 от 14/02/2020</t>
+  </si>
+  <si>
+    <t>Уплата процентов, начисленных по договору на размещение на расчетном счете денежных средств в форме неснижаемого остатка №421 от 17/02/2020</t>
+  </si>
+  <si>
+    <t>Уплата процентов, начисленных по договору на размещение на расчетном счете денежных средств в форме неснижаемого остатка №422 от 03/03/2020</t>
+  </si>
+  <si>
+    <t>УК.Получение НКД, доходов по ЦБ на р/с</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ ВЭБ.РФ (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 40.89РУБ.), ГРН 4B02-11-00004-T-001P , КОЛ-ВО ЦБ - 49400ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ ВЭБ.РФ (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 43.63РУБ.), ГРН 4B02-09-00004-T-001P , КОЛ-ВО ЦБ - 166837ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ МИНИСТЕРСТВА ФИНАНСОВ СВЕРДЛОВСКОЙ ОБЛАСТИ (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 21.64РУБ.), ГРН RU35005SVS0 , КОЛ-ВО ЦБ -7660ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ РОССЕЛЬХОЗБАНК АО (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 43.13РУБ.), ГРН 4B020203349B001P , КОЛ-ВО ЦБ - 200569ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ ПАО "ФСК ЕЭС" (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 42.38РУБ.), ГРН 4-13-65018-D , КОЛ-ВО ЦБ - 406450ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ ГОСУДАРСТВЕННАЯ КОМПАНИЯ "АВТОДОР" (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 39.89РУБ.), ГРН 4B02-02-00011-T-002P , КОЛ-ВО ЦБ- 1148001ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ ГОСУДАРСТВЕННАЯ КОМПАНИЯ "АВТОДОР" (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 35.65РУБ.), ГРН 4B02-05-00011-T-002P , КОЛ-ВО ЦБ- 20000ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ ВЭБ.РФ (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 48.13РУБ.), ГРН 4B02-05-00004-T-001P , КОЛ-ВО ЦБ - 200000ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ ВЭБ.РФ (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 40.64РУБ.), ГРН 4B02-177-00004-T-001P , КО Л-ВО ЦБ - 30000ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ ПАО "ГРУППА ЛСР" (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 16.08РУБ.), ГРН 4B02-01-55234-E-001P , КОЛ-ВО ЦБ - 300000ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ ДЕПАРТАМЕНТ ФИНАНСОВ ТОМСКОЙ ОБЛАСТИ (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 18.7РУБ.), ГРН RU34062TMS0 , КОЛ-ВО ЦБ - 115500ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ ПАО "МТС" (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 16.08РУБ.), ГРН 4B02-13-04715-A-001P , КОЛ-ВО ЦБ - 146491ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ МИНИСТЕРСТВА ЭКОНОМИКИ И ФИНАНСОВ МОСКОВСКОЙ ОБЛАСТИ (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 14.02РУБ.), ГРН RU34011MOO0 , КОЛ-ВО ЦБ - 24100ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ ПАО "НГК "СЛАВНЕФТЬ" (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 21.57РУБ.), ГРН 4B02-02-00221-A-001P , КОЛ-ВО ЦБ - 1267279ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ МИНИСТЕРСТВА ЭКОНОМИКИ И ФИНАНСОВ МОСКОВСКОЙ ОБЛАСТИ (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 16.33РУБ.), ГРН RU34013MOO0 , КОЛ-ВО ЦБ - 23500ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ ДЕПАРТАМЕНТА ФИНАНСОВ ЯРОСЛАВСКОЙ ОБЛАСТИ (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 19.82РУБ.), ГРН RU35017YRS0 , КОЛ-ВО ЦБ - 100000ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ РОССЕЛЬХОЗБАНК АО (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 40.64РУБ.), ГРН 41203349B , КОЛ-ВО ЦБ - 20000ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ ПАО "НК "РОСНЕФТЬ" (РАЗМЕР КУП.ДОХОДА НА 1ЦБ  - 21.69РУБ.), ГРН 4B02-06-00122-A-002P , КОЛ-ВО ЦБ - 90000ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ ДОМ.РФ ИПОТЕЧНЫЙ АГЕНТ ООО (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 17.2РУБ.), ГРН 4-09-00307-R-002P , КОЛ-ВО ЦБ - 48780ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ ПАО "КАМАЗ" (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 21.19РУБ.), ГРН 4B02-04-55010-D-001P , КОЛ-ВО ЦБ - 300000ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ ПАО "ПОЛЮС" (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 60.33РУБ.), ГРН 4B02-02-55192-E , КОЛ-ВО ЦБ - 179940ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ МИНИСТЕРСТВА ЭКОНОМИКИ И ФИНАНСОВ МОСКОВСКОЙ ОБЛАСТИ (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 17.58РУБ.), ГРН RU34012MOO0 , КОЛ-ВО ЦБ - 462850ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ МИНФИН НИЖЕГОРОДСКОЙ ОБЛАСТИ (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 25.55РУБ.), ГРН RU35011NJG0 , КОЛ-ВО ЦБ - 5266ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ МФ И НП НСО (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 21.37РУБ.), ГРН RU34019ANO0 , КОЛ-ВО ЦБ - 48300ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ МФ И НП НСО (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 16.21РУБ.), ГРН RU34020ANO0 , КОЛ-ВО ЦБ - 20000ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ РОССЕЛЬХОЗБАНК АО (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 36.9РУБ.), ГРН 42103349B , КОЛ-ВО ЦБ - 49213ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ ПАО "ГРУППА ЛСР" (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 19.25РУБ.), ГРН 4B02-02-55234-E-001P , КОЛ-ВО ЦБ - 100000ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ ООО "СУЭК-ФИНАНС" (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 37.4РУБ.), ГРН 4B02-03-36393-R-001P , КОЛ-ВО ЦБ - 415560ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ АО "ПОЧТА РОССИИ" (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 44.38РУБ.), ГРН 4B02-04-00005-T , КОЛ-ВО ЦБ - 157150ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ ДЕПАРТАМЕНТ ФИНАНСОВ ЯРОСЛАВСКОЙ ОБЛАСТИ (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 50.53РУБ.), ГРН RU35017YRS0 , КОЛ-ВО ЦБ - 100000ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ ПАО РОСБАНК (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 41.86РУБ.), ГРН 4B020103338B001P , КО Л-ВО ЦБ - 90000ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ ПАО АФК "СИСТЕМА" (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 44.38РУБ.), ГРН 4B02-06-01669-A-001P , КОЛ-ВО ЦБ - 6989ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ ПАО АФК "СИСТЕМА" (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 49.36РУБ.), ГРН 4B02-10-01669-A-001P , КОЛ-ВО ЦБ - 44783ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ ООО "ДОМ.РФ ИПОТЕЧНЫЙ АГЕНТ" (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 18.59РУБ.), ГРН 4-09-00307-R-002P , КОЛ-ВО ЦБ - 48780ШТ.БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ ПАО "МРСК ЦЕНТРА" (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 34.65РУБ.), ГРН 4B02-06-10214-A , КОЛ-ВО ЦБ - 9999ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ ПАО "ТМК" (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 44.88РУБ.), ГРН 4B02-05-29031-H , КОЛ-ВО ЦБ - 1987ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ АО "МХК "ЕВРОХИМ" (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 42.87РУБ.), ГРН 4B02-03-31153-H-001P , КОЛ-ВО ЦБ - 29880ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ АЛЬФА-БАНК АО (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 42.87РУБ.), ГРН 4B020401326B002P , КОЛ-ВО ЦБ - 112300ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ ПАО "ТРАНСНЕФТЬ" (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 50.36РУБ.), ГРН 4B02-05-00206-A , КОЛ-ВО ЦБ - 152081ШТ. БЕЗ НДС</t>
+  </si>
+  <si>
+    <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ ПАО "ГАЗПРОМ НЕФТЬ" (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 39.14РУБ.), ГРН 4B02-03-00146-A-001P , КОЛ-ВО ЦБ - 166601ШТ. БЕЗНДС</t>
   </si>
 </sst>
 </file>
@@ -571,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0A4823-B8C1-F54A-A299-81C21B5A1A62}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H297"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G15"/>
+    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="G311" sqref="G311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1887,6 +2517,6428 @@
         <v>2469316</v>
       </c>
     </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="1">
+        <v>123</v>
+      </c>
+      <c r="C51" s="1">
+        <v>123</v>
+      </c>
+      <c r="D51" s="2">
+        <v>43839</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="1">
+        <v>2466314</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="1">
+        <v>123</v>
+      </c>
+      <c r="C52" s="1">
+        <v>123</v>
+      </c>
+      <c r="D52" s="2">
+        <v>43839</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H52" s="1">
+        <v>2466314</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="1">
+        <v>123</v>
+      </c>
+      <c r="C53" s="1">
+        <v>123</v>
+      </c>
+      <c r="D53" s="2">
+        <v>43839</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H53" s="1">
+        <v>2466314</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="1">
+        <v>123</v>
+      </c>
+      <c r="C54" s="1">
+        <v>123</v>
+      </c>
+      <c r="D54" s="2">
+        <v>43839</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H54" s="1">
+        <v>2466314</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="1">
+        <v>123</v>
+      </c>
+      <c r="C55" s="1">
+        <v>123</v>
+      </c>
+      <c r="D55" s="2">
+        <v>43839</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H55" s="1">
+        <v>2466314</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="1">
+        <v>123</v>
+      </c>
+      <c r="C56" s="1">
+        <v>123</v>
+      </c>
+      <c r="D56" s="2">
+        <v>43839</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H56" s="1">
+        <v>2466314</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="1">
+        <v>123</v>
+      </c>
+      <c r="C57" s="1">
+        <v>123</v>
+      </c>
+      <c r="D57" s="2">
+        <v>43839</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H57" s="1">
+        <v>2466315</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="1">
+        <v>123</v>
+      </c>
+      <c r="C58" s="1">
+        <v>123</v>
+      </c>
+      <c r="D58" s="2">
+        <v>43839</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H58" s="1">
+        <v>2466315</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="1">
+        <v>123</v>
+      </c>
+      <c r="C59" s="1">
+        <v>123</v>
+      </c>
+      <c r="D59" s="2">
+        <v>43839</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H59" s="1">
+        <v>2466315</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="1">
+        <v>123</v>
+      </c>
+      <c r="C60" s="1">
+        <v>123</v>
+      </c>
+      <c r="D60" s="2">
+        <v>43839</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H60" s="1">
+        <v>2466315</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="1">
+        <v>123</v>
+      </c>
+      <c r="C61" s="1">
+        <v>123</v>
+      </c>
+      <c r="D61" s="2">
+        <v>43839</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H61" s="1">
+        <v>2466315</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="1">
+        <v>123</v>
+      </c>
+      <c r="C62" s="1">
+        <v>123</v>
+      </c>
+      <c r="D62" s="2">
+        <v>43839</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H62" s="1">
+        <v>2466315</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="1">
+        <v>123</v>
+      </c>
+      <c r="C63" s="1">
+        <v>123</v>
+      </c>
+      <c r="D63" s="2">
+        <v>43839</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H63" s="1">
+        <v>2466315</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="1">
+        <v>123</v>
+      </c>
+      <c r="C64" s="1">
+        <v>123</v>
+      </c>
+      <c r="D64" s="2">
+        <v>43845</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H64" s="1">
+        <v>2469933</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="1">
+        <v>123</v>
+      </c>
+      <c r="C65" s="1">
+        <v>123</v>
+      </c>
+      <c r="D65" s="2">
+        <v>43845</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H65" s="1">
+        <v>2469933</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="1">
+        <v>123</v>
+      </c>
+      <c r="C66" s="1">
+        <v>123</v>
+      </c>
+      <c r="D66" s="2">
+        <v>43845</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H66" s="1">
+        <v>2469933</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="1">
+        <v>123</v>
+      </c>
+      <c r="C67" s="1">
+        <v>123</v>
+      </c>
+      <c r="D67" s="2">
+        <v>43840</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H67" s="1">
+        <v>2467260</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="1">
+        <v>123</v>
+      </c>
+      <c r="C68" s="1">
+        <v>123</v>
+      </c>
+      <c r="D68" s="2">
+        <v>43840</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H68" s="1">
+        <v>2467260</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="1">
+        <v>123</v>
+      </c>
+      <c r="C69" s="1">
+        <v>123</v>
+      </c>
+      <c r="D69" s="2">
+        <v>43840</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H69" s="1">
+        <v>2467261</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="1">
+        <v>123</v>
+      </c>
+      <c r="C70" s="1">
+        <v>123</v>
+      </c>
+      <c r="D70" s="2">
+        <v>43840</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H70" s="1">
+        <v>2467261</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="1">
+        <v>123</v>
+      </c>
+      <c r="C71" s="1">
+        <v>123</v>
+      </c>
+      <c r="D71" s="2">
+        <v>43840</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H71" s="1">
+        <v>2467261</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="1">
+        <v>123</v>
+      </c>
+      <c r="C72" s="1">
+        <v>123</v>
+      </c>
+      <c r="D72" s="2">
+        <v>43840</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H72" s="1">
+        <v>2467261</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="1">
+        <v>123</v>
+      </c>
+      <c r="C73" s="1">
+        <v>123</v>
+      </c>
+      <c r="D73" s="2">
+        <v>43843</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H73" s="1">
+        <v>2468156</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="1">
+        <v>123</v>
+      </c>
+      <c r="C74" s="1">
+        <v>123</v>
+      </c>
+      <c r="D74" s="2">
+        <v>43843</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H74" s="1">
+        <v>2468156</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="1">
+        <v>123</v>
+      </c>
+      <c r="C75" s="1">
+        <v>123</v>
+      </c>
+      <c r="D75" s="2">
+        <v>43844</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H75" s="1">
+        <v>2469315</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="1">
+        <v>123</v>
+      </c>
+      <c r="C76" s="1">
+        <v>123</v>
+      </c>
+      <c r="D76" s="2">
+        <v>43844</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H76" s="1">
+        <v>2469315</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="1">
+        <v>123</v>
+      </c>
+      <c r="C77" s="1">
+        <v>123</v>
+      </c>
+      <c r="D77" s="2">
+        <v>43844</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H77" s="1">
+        <v>2469316</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="1">
+        <v>123</v>
+      </c>
+      <c r="C78" s="1">
+        <v>123</v>
+      </c>
+      <c r="D78" s="2">
+        <v>43844</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H78" s="1">
+        <v>2469316</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="1">
+        <v>123</v>
+      </c>
+      <c r="C79" s="1">
+        <v>123</v>
+      </c>
+      <c r="D79" s="2">
+        <v>43844</v>
+      </c>
+      <c r="E79" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H79" s="1">
+        <v>2469316</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="1">
+        <v>123</v>
+      </c>
+      <c r="C80" s="1">
+        <v>123</v>
+      </c>
+      <c r="D80" s="2">
+        <v>43845</v>
+      </c>
+      <c r="E80" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H80" s="1">
+        <v>2469933</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="1">
+        <v>123</v>
+      </c>
+      <c r="C81" s="1">
+        <v>123</v>
+      </c>
+      <c r="D81" s="2">
+        <v>43846</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H81" s="1">
+        <v>2470866</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="1">
+        <v>123</v>
+      </c>
+      <c r="C82" s="1">
+        <v>123</v>
+      </c>
+      <c r="D82" s="2">
+        <v>43846</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H82" s="1">
+        <v>2470867</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="1">
+        <v>123</v>
+      </c>
+      <c r="C83" s="1">
+        <v>123</v>
+      </c>
+      <c r="D83" s="2">
+        <v>43846</v>
+      </c>
+      <c r="E83" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H83" s="1">
+        <v>2470867</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="1">
+        <v>123</v>
+      </c>
+      <c r="C84" s="1">
+        <v>123</v>
+      </c>
+      <c r="D84" s="2">
+        <v>43846</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H84" s="1">
+        <v>2470867</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="1">
+        <v>123</v>
+      </c>
+      <c r="C85" s="1">
+        <v>123</v>
+      </c>
+      <c r="D85" s="2">
+        <v>43846</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H85" s="1">
+        <v>2470867</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="1">
+        <v>123</v>
+      </c>
+      <c r="C86" s="1">
+        <v>123</v>
+      </c>
+      <c r="D86" s="2">
+        <v>43846</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H86" s="1">
+        <v>2470867</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="1">
+        <v>123</v>
+      </c>
+      <c r="C87" s="1">
+        <v>123</v>
+      </c>
+      <c r="D87" s="2">
+        <v>43846</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H87" s="1">
+        <v>2470867</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="1">
+        <v>123</v>
+      </c>
+      <c r="C88" s="1">
+        <v>123</v>
+      </c>
+      <c r="D88" s="2">
+        <v>43846</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H88" s="1">
+        <v>2470867</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="1">
+        <v>123</v>
+      </c>
+      <c r="C89" s="1">
+        <v>123</v>
+      </c>
+      <c r="D89" s="2">
+        <v>43846</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H89" s="1">
+        <v>2470867</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="1">
+        <v>123</v>
+      </c>
+      <c r="C90" s="1">
+        <v>123</v>
+      </c>
+      <c r="D90" s="2">
+        <v>43846</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H90" s="1">
+        <v>2470867</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="1">
+        <v>123</v>
+      </c>
+      <c r="C91" s="1">
+        <v>123</v>
+      </c>
+      <c r="D91" s="2">
+        <v>43846</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H91" s="1">
+        <v>2470867</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="1">
+        <v>123</v>
+      </c>
+      <c r="C92" s="1">
+        <v>123</v>
+      </c>
+      <c r="D92" s="2">
+        <v>43846</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H92" s="1">
+        <v>2470867</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1">
+        <v>123</v>
+      </c>
+      <c r="C93" s="1">
+        <v>123</v>
+      </c>
+      <c r="D93" s="2">
+        <v>43846</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H93" s="1">
+        <v>2470867</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="1">
+        <v>123</v>
+      </c>
+      <c r="C94" s="1">
+        <v>123</v>
+      </c>
+      <c r="D94" s="2">
+        <v>43846</v>
+      </c>
+      <c r="E94" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H94" s="1">
+        <v>2470868</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="1">
+        <v>123</v>
+      </c>
+      <c r="C95" s="1">
+        <v>123</v>
+      </c>
+      <c r="D95" s="2">
+        <v>43847</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H95" s="1">
+        <v>2471898</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="1">
+        <v>123</v>
+      </c>
+      <c r="C96" s="1">
+        <v>123</v>
+      </c>
+      <c r="D96" s="2">
+        <v>43847</v>
+      </c>
+      <c r="E96" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H96" s="1">
+        <v>2471898</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="1">
+        <v>123</v>
+      </c>
+      <c r="C97" s="1">
+        <v>123</v>
+      </c>
+      <c r="D97" s="2">
+        <v>43847</v>
+      </c>
+      <c r="E97" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H97" s="1">
+        <v>2471899</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="1">
+        <v>123</v>
+      </c>
+      <c r="C98" s="1">
+        <v>123</v>
+      </c>
+      <c r="D98" s="2">
+        <v>43850</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H98" s="1">
+        <v>2472782</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="1">
+        <v>123</v>
+      </c>
+      <c r="C99" s="1">
+        <v>123</v>
+      </c>
+      <c r="D99" s="2">
+        <v>43860</v>
+      </c>
+      <c r="E99" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H99" s="1">
+        <v>2480853</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="1">
+        <v>123</v>
+      </c>
+      <c r="C100" s="1">
+        <v>123</v>
+      </c>
+      <c r="D100" s="2">
+        <v>43860</v>
+      </c>
+      <c r="E100" s="1">
+        <v>1801</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H100" s="1">
+        <v>2480854</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="1">
+        <v>123</v>
+      </c>
+      <c r="C101" s="1">
+        <v>123</v>
+      </c>
+      <c r="D101" s="2">
+        <v>43844</v>
+      </c>
+      <c r="E101" s="1">
+        <v>2295</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H101" s="1">
+        <v>2469315</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="1">
+        <v>123</v>
+      </c>
+      <c r="C102" s="1">
+        <v>123</v>
+      </c>
+      <c r="D102" s="2">
+        <v>43846</v>
+      </c>
+      <c r="E102" s="1">
+        <v>2295</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H102" s="1">
+        <v>2470866</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="1">
+        <v>123</v>
+      </c>
+      <c r="C103" s="1">
+        <v>123</v>
+      </c>
+      <c r="D103" s="2">
+        <v>43846</v>
+      </c>
+      <c r="E103" s="1">
+        <v>2295</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H103" s="1">
+        <v>2470868</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="1">
+        <v>123</v>
+      </c>
+      <c r="C104" s="1">
+        <v>123</v>
+      </c>
+      <c r="D104" s="2">
+        <v>43847</v>
+      </c>
+      <c r="E104" s="1">
+        <v>2295</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H104" s="1">
+        <v>2471899</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="1">
+        <v>123</v>
+      </c>
+      <c r="C105" s="1">
+        <v>123</v>
+      </c>
+      <c r="D105" s="2">
+        <v>43839</v>
+      </c>
+      <c r="E105" s="1">
+        <v>2295</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H105" s="1">
+        <v>2466314</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="1">
+        <v>123</v>
+      </c>
+      <c r="C106" s="1">
+        <v>123</v>
+      </c>
+      <c r="D106" s="2">
+        <v>43867</v>
+      </c>
+      <c r="E106" s="1">
+        <v>2295</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H106" s="1">
+        <v>2487125</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="1">
+        <v>124</v>
+      </c>
+      <c r="C107" s="1">
+        <v>217</v>
+      </c>
+      <c r="D107" s="2">
+        <v>43860</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1799</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H107" s="1">
+        <v>2481042</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="1">
+        <v>124</v>
+      </c>
+      <c r="C108" s="1">
+        <v>217</v>
+      </c>
+      <c r="D108" s="2">
+        <v>43999</v>
+      </c>
+      <c r="E108" s="1">
+        <v>1804</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H108" s="1">
+        <v>2579197</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="1">
+        <v>124</v>
+      </c>
+      <c r="C109" s="1">
+        <v>217</v>
+      </c>
+      <c r="D109" s="2">
+        <v>43843</v>
+      </c>
+      <c r="E109" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H109" s="1">
+        <v>2468491</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="1">
+        <v>124</v>
+      </c>
+      <c r="C110" s="1">
+        <v>217</v>
+      </c>
+      <c r="D110" s="2">
+        <v>43846</v>
+      </c>
+      <c r="E110" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H110" s="1">
+        <v>2471078</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="1">
+        <v>124</v>
+      </c>
+      <c r="C111" s="1">
+        <v>217</v>
+      </c>
+      <c r="D111" s="2">
+        <v>43852</v>
+      </c>
+      <c r="E111" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H111" s="1">
+        <v>2474855</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="1">
+        <v>124</v>
+      </c>
+      <c r="C112" s="1">
+        <v>217</v>
+      </c>
+      <c r="D112" s="2">
+        <v>43854</v>
+      </c>
+      <c r="E112" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H112" s="1">
+        <v>2476622</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="1">
+        <v>124</v>
+      </c>
+      <c r="C113" s="1">
+        <v>217</v>
+      </c>
+      <c r="D113" s="2">
+        <v>43860</v>
+      </c>
+      <c r="E113" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H113" s="1">
+        <v>2481042</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="1">
+        <v>124</v>
+      </c>
+      <c r="C114" s="1">
+        <v>217</v>
+      </c>
+      <c r="D114" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E114" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H114" s="1">
+        <v>2482690</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="1">
+        <v>124</v>
+      </c>
+      <c r="C115" s="1">
+        <v>217</v>
+      </c>
+      <c r="D115" s="2">
+        <v>43866</v>
+      </c>
+      <c r="E115" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H115" s="1">
+        <v>2485612</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="1">
+        <v>124</v>
+      </c>
+      <c r="C116" s="1">
+        <v>217</v>
+      </c>
+      <c r="D116" s="2">
+        <v>43867</v>
+      </c>
+      <c r="E116" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H116" s="1">
+        <v>2487345</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="1">
+        <v>124</v>
+      </c>
+      <c r="C117" s="1">
+        <v>217</v>
+      </c>
+      <c r="D117" s="2">
+        <v>43871</v>
+      </c>
+      <c r="E117" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H117" s="1">
+        <v>2489404</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="1">
+        <v>124</v>
+      </c>
+      <c r="C118" s="1">
+        <v>217</v>
+      </c>
+      <c r="D118" s="2">
+        <v>43871</v>
+      </c>
+      <c r="E118" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H118" s="1">
+        <v>2489404</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" s="1">
+        <v>124</v>
+      </c>
+      <c r="C119" s="1">
+        <v>217</v>
+      </c>
+      <c r="D119" s="2">
+        <v>43872</v>
+      </c>
+      <c r="E119" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H119" s="1">
+        <v>2490244</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="1">
+        <v>124</v>
+      </c>
+      <c r="C120" s="1">
+        <v>217</v>
+      </c>
+      <c r="D120" s="2">
+        <v>43873</v>
+      </c>
+      <c r="E120" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H120" s="1">
+        <v>2491085</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="1">
+        <v>124</v>
+      </c>
+      <c r="C121" s="1">
+        <v>217</v>
+      </c>
+      <c r="D121" s="2">
+        <v>43874</v>
+      </c>
+      <c r="E121" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H121" s="1">
+        <v>2492324</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="1">
+        <v>124</v>
+      </c>
+      <c r="C122" s="1">
+        <v>217</v>
+      </c>
+      <c r="D122" s="2">
+        <v>43879</v>
+      </c>
+      <c r="E122" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H122" s="1">
+        <v>2495418</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="1">
+        <v>124</v>
+      </c>
+      <c r="C123" s="1">
+        <v>217</v>
+      </c>
+      <c r="D123" s="2">
+        <v>43880</v>
+      </c>
+      <c r="E123" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H123" s="1">
+        <v>2496532</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="1">
+        <v>124</v>
+      </c>
+      <c r="C124" s="1">
+        <v>217</v>
+      </c>
+      <c r="D124" s="2">
+        <v>43913</v>
+      </c>
+      <c r="E124" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H124" s="1">
+        <v>2519175</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="1">
+        <v>124</v>
+      </c>
+      <c r="C125" s="1">
+        <v>217</v>
+      </c>
+      <c r="D125" s="2">
+        <v>43913</v>
+      </c>
+      <c r="E125" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H125" s="1">
+        <v>2519176</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="1">
+        <v>124</v>
+      </c>
+      <c r="C126" s="1">
+        <v>217</v>
+      </c>
+      <c r="D126" s="2">
+        <v>43920</v>
+      </c>
+      <c r="E126" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H126" s="1">
+        <v>2524492</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="1">
+        <v>124</v>
+      </c>
+      <c r="C127" s="1">
+        <v>217</v>
+      </c>
+      <c r="D127" s="2">
+        <v>43927</v>
+      </c>
+      <c r="E127" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H127" s="1">
+        <v>2528911</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="1">
+        <v>124</v>
+      </c>
+      <c r="C128" s="1">
+        <v>217</v>
+      </c>
+      <c r="D128" s="2">
+        <v>43936</v>
+      </c>
+      <c r="E128" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H128" s="1">
+        <v>2536975</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="1">
+        <v>124</v>
+      </c>
+      <c r="C129" s="1">
+        <v>217</v>
+      </c>
+      <c r="D129" s="2">
+        <v>43942</v>
+      </c>
+      <c r="E129" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H129" s="1">
+        <v>2540844</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" s="1">
+        <v>124</v>
+      </c>
+      <c r="C130" s="1">
+        <v>217</v>
+      </c>
+      <c r="D130" s="2">
+        <v>43944</v>
+      </c>
+      <c r="E130" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H130" s="1">
+        <v>2543130</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" s="1">
+        <v>124</v>
+      </c>
+      <c r="C131" s="1">
+        <v>217</v>
+      </c>
+      <c r="D131" s="2">
+        <v>43944</v>
+      </c>
+      <c r="E131" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H131" s="1">
+        <v>2543131</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" s="1">
+        <v>124</v>
+      </c>
+      <c r="C132" s="1">
+        <v>217</v>
+      </c>
+      <c r="D132" s="2">
+        <v>43949</v>
+      </c>
+      <c r="E132" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H132" s="1">
+        <v>2545946</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="1">
+        <v>124</v>
+      </c>
+      <c r="C133" s="1">
+        <v>217</v>
+      </c>
+      <c r="D133" s="2">
+        <v>43957</v>
+      </c>
+      <c r="E133" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H133" s="1">
+        <v>2550142</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" s="1">
+        <v>124</v>
+      </c>
+      <c r="C134" s="1">
+        <v>217</v>
+      </c>
+      <c r="D134" s="2">
+        <v>43964</v>
+      </c>
+      <c r="E134" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H134" s="1">
+        <v>2553888</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" s="1">
+        <v>124</v>
+      </c>
+      <c r="C135" s="1">
+        <v>217</v>
+      </c>
+      <c r="D135" s="2">
+        <v>43965</v>
+      </c>
+      <c r="E135" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H135" s="1">
+        <v>2554728</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" s="1">
+        <v>124</v>
+      </c>
+      <c r="C136" s="1">
+        <v>217</v>
+      </c>
+      <c r="D136" s="2">
+        <v>43970</v>
+      </c>
+      <c r="E136" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H136" s="1">
+        <v>2558406</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="1">
+        <v>124</v>
+      </c>
+      <c r="C137" s="1">
+        <v>217</v>
+      </c>
+      <c r="D137" s="2">
+        <v>43972</v>
+      </c>
+      <c r="E137" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H137" s="1">
+        <v>2560493</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" s="1">
+        <v>124</v>
+      </c>
+      <c r="C138" s="1">
+        <v>217</v>
+      </c>
+      <c r="D138" s="2">
+        <v>43977</v>
+      </c>
+      <c r="E138" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H138" s="1">
+        <v>2563137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" s="1">
+        <v>124</v>
+      </c>
+      <c r="C139" s="1">
+        <v>217</v>
+      </c>
+      <c r="D139" s="2">
+        <v>43979</v>
+      </c>
+      <c r="E139" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H139" s="1">
+        <v>2565493</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" s="1">
+        <v>124</v>
+      </c>
+      <c r="C140" s="1">
+        <v>217</v>
+      </c>
+      <c r="D140" s="2">
+        <v>43983</v>
+      </c>
+      <c r="E140" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H140" s="1">
+        <v>2567790</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" s="1">
+        <v>124</v>
+      </c>
+      <c r="C141" s="1">
+        <v>217</v>
+      </c>
+      <c r="D141" s="2">
+        <v>43984</v>
+      </c>
+      <c r="E141" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H141" s="1">
+        <v>2569268</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" s="1">
+        <v>124</v>
+      </c>
+      <c r="C142" s="1">
+        <v>217</v>
+      </c>
+      <c r="D142" s="2">
+        <v>43985</v>
+      </c>
+      <c r="E142" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H142" s="1">
+        <v>2570578</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" s="1">
+        <v>124</v>
+      </c>
+      <c r="C143" s="1">
+        <v>217</v>
+      </c>
+      <c r="D143" s="2">
+        <v>43992</v>
+      </c>
+      <c r="E143" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H143" s="1">
+        <v>2574950</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" s="1">
+        <v>124</v>
+      </c>
+      <c r="C144" s="1">
+        <v>217</v>
+      </c>
+      <c r="D144" s="2">
+        <v>43998</v>
+      </c>
+      <c r="E144" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H144" s="1">
+        <v>2578178</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" s="1">
+        <v>124</v>
+      </c>
+      <c r="C145" s="1">
+        <v>217</v>
+      </c>
+      <c r="D145" s="2">
+        <v>43999</v>
+      </c>
+      <c r="E145" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H145" s="1">
+        <v>2579197</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" s="1">
+        <v>124</v>
+      </c>
+      <c r="C146" s="1">
+        <v>217</v>
+      </c>
+      <c r="D146" s="2">
+        <v>44000</v>
+      </c>
+      <c r="E146" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H146" s="1">
+        <v>2580284</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" s="1">
+        <v>124</v>
+      </c>
+      <c r="C147" s="1">
+        <v>217</v>
+      </c>
+      <c r="D147" s="2">
+        <v>44005</v>
+      </c>
+      <c r="E147" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H147" s="1">
+        <v>2583126</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" s="1">
+        <v>124</v>
+      </c>
+      <c r="C148" s="1">
+        <v>217</v>
+      </c>
+      <c r="D148" s="2">
+        <v>44007</v>
+      </c>
+      <c r="E148" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H148" s="1">
+        <v>2584369</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" s="1">
+        <v>124</v>
+      </c>
+      <c r="C149" s="1">
+        <v>217</v>
+      </c>
+      <c r="D149" s="2">
+        <v>44008</v>
+      </c>
+      <c r="E149" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H149" s="1">
+        <v>2585239</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B150" s="1">
+        <v>124</v>
+      </c>
+      <c r="C150" s="1">
+        <v>217</v>
+      </c>
+      <c r="D150" s="2">
+        <v>44011</v>
+      </c>
+      <c r="E150" s="1">
+        <v>1809</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H150" s="1">
+        <v>2586462</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151" s="1">
+        <v>124</v>
+      </c>
+      <c r="C151" s="1">
+        <v>217</v>
+      </c>
+      <c r="D151" s="2">
+        <v>43871</v>
+      </c>
+      <c r="E151" s="1">
+        <v>1816</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H151" s="1">
+        <v>2489404</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B152" s="1">
+        <v>124</v>
+      </c>
+      <c r="C152" s="1">
+        <v>217</v>
+      </c>
+      <c r="D152" s="2">
+        <v>43871</v>
+      </c>
+      <c r="E152" s="1">
+        <v>1816</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H152" s="1">
+        <v>2489404</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B153" s="1">
+        <v>124</v>
+      </c>
+      <c r="C153" s="1">
+        <v>217</v>
+      </c>
+      <c r="D153" s="2">
+        <v>43908</v>
+      </c>
+      <c r="E153" s="1">
+        <v>1816</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H153" s="1">
+        <v>2516487</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B154" s="1">
+        <v>124</v>
+      </c>
+      <c r="C154" s="1">
+        <v>217</v>
+      </c>
+      <c r="D154" s="2">
+        <v>43906</v>
+      </c>
+      <c r="E154" s="1">
+        <v>1816</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H154" s="1">
+        <v>2514429</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B155" s="1">
+        <v>124</v>
+      </c>
+      <c r="C155" s="1">
+        <v>217</v>
+      </c>
+      <c r="D155" s="2">
+        <v>43900</v>
+      </c>
+      <c r="E155" s="1">
+        <v>1816</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H155" s="1">
+        <v>2510470</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B156" s="1">
+        <v>124</v>
+      </c>
+      <c r="C156" s="1">
+        <v>217</v>
+      </c>
+      <c r="D156" s="2">
+        <v>43867</v>
+      </c>
+      <c r="E156" s="1">
+        <v>1817</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H156" s="1">
+        <v>2487345</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" s="1">
+        <v>124</v>
+      </c>
+      <c r="C157" s="1">
+        <v>217</v>
+      </c>
+      <c r="D157" s="2">
+        <v>43867</v>
+      </c>
+      <c r="E157" s="1">
+        <v>1817</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H157" s="1">
+        <v>2487345</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B158" s="1">
+        <v>124</v>
+      </c>
+      <c r="C158" s="1">
+        <v>217</v>
+      </c>
+      <c r="D158" s="2">
+        <v>43866</v>
+      </c>
+      <c r="E158" s="1">
+        <v>1821</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H158" s="1">
+        <v>2485612</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B159" s="1">
+        <v>124</v>
+      </c>
+      <c r="C159" s="1">
+        <v>217</v>
+      </c>
+      <c r="D159" s="2">
+        <v>44001</v>
+      </c>
+      <c r="E159" s="1">
+        <v>1821</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H159" s="1">
+        <v>2580967</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B160" s="1">
+        <v>124</v>
+      </c>
+      <c r="C160" s="1">
+        <v>217</v>
+      </c>
+      <c r="D160" s="2">
+        <v>43866</v>
+      </c>
+      <c r="E160" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H160" s="1">
+        <v>2485612</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B161" s="1">
+        <v>124</v>
+      </c>
+      <c r="C161" s="1">
+        <v>217</v>
+      </c>
+      <c r="D161" s="2">
+        <v>43867</v>
+      </c>
+      <c r="E161" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H161" s="1">
+        <v>2487345</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B162" s="1">
+        <v>124</v>
+      </c>
+      <c r="C162" s="1">
+        <v>217</v>
+      </c>
+      <c r="D162" s="2">
+        <v>43867</v>
+      </c>
+      <c r="E162" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H162" s="1">
+        <v>2487345</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B163" s="1">
+        <v>124</v>
+      </c>
+      <c r="C163" s="1">
+        <v>217</v>
+      </c>
+      <c r="D163" s="2">
+        <v>43871</v>
+      </c>
+      <c r="E163" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H163" s="1">
+        <v>2489404</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" s="1">
+        <v>124</v>
+      </c>
+      <c r="C164" s="1">
+        <v>217</v>
+      </c>
+      <c r="D164" s="2">
+        <v>43871</v>
+      </c>
+      <c r="E164" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H164" s="1">
+        <v>2489404</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B165" s="1">
+        <v>124</v>
+      </c>
+      <c r="C165" s="1">
+        <v>217</v>
+      </c>
+      <c r="D165" s="2">
+        <v>43872</v>
+      </c>
+      <c r="E165" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H165" s="1">
+        <v>2490244</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166" s="1">
+        <v>124</v>
+      </c>
+      <c r="C166" s="1">
+        <v>217</v>
+      </c>
+      <c r="D166" s="2">
+        <v>43873</v>
+      </c>
+      <c r="E166" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H166" s="1">
+        <v>2491085</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B167" s="1">
+        <v>124</v>
+      </c>
+      <c r="C167" s="1">
+        <v>217</v>
+      </c>
+      <c r="D167" s="2">
+        <v>43874</v>
+      </c>
+      <c r="E167" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H167" s="1">
+        <v>2492324</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168" s="1">
+        <v>124</v>
+      </c>
+      <c r="C168" s="1">
+        <v>217</v>
+      </c>
+      <c r="D168" s="2">
+        <v>43879</v>
+      </c>
+      <c r="E168" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H168" s="1">
+        <v>2495418</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" s="1">
+        <v>124</v>
+      </c>
+      <c r="C169" s="1">
+        <v>217</v>
+      </c>
+      <c r="D169" s="2">
+        <v>43880</v>
+      </c>
+      <c r="E169" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H169" s="1">
+        <v>2496532</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B170" s="1">
+        <v>124</v>
+      </c>
+      <c r="C170" s="1">
+        <v>217</v>
+      </c>
+      <c r="D170" s="2">
+        <v>43886</v>
+      </c>
+      <c r="E170" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H170" s="1">
+        <v>2500221</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B171" s="1">
+        <v>124</v>
+      </c>
+      <c r="C171" s="1">
+        <v>217</v>
+      </c>
+      <c r="D171" s="2">
+        <v>43887</v>
+      </c>
+      <c r="E171" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H171" s="1">
+        <v>2501004</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B172" s="1">
+        <v>124</v>
+      </c>
+      <c r="C172" s="1">
+        <v>217</v>
+      </c>
+      <c r="D172" s="2">
+        <v>43889</v>
+      </c>
+      <c r="E172" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H172" s="1">
+        <v>2503886</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B173" s="1">
+        <v>124</v>
+      </c>
+      <c r="C173" s="1">
+        <v>217</v>
+      </c>
+      <c r="D173" s="2">
+        <v>43889</v>
+      </c>
+      <c r="E173" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H173" s="1">
+        <v>2503886</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B174" s="1">
+        <v>124</v>
+      </c>
+      <c r="C174" s="1">
+        <v>217</v>
+      </c>
+      <c r="D174" s="2">
+        <v>43895</v>
+      </c>
+      <c r="E174" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H174" s="1">
+        <v>2507851</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B175" s="1">
+        <v>124</v>
+      </c>
+      <c r="C175" s="1">
+        <v>217</v>
+      </c>
+      <c r="D175" s="2">
+        <v>43900</v>
+      </c>
+      <c r="E175" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H175" s="1">
+        <v>2510470</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B176" s="1">
+        <v>124</v>
+      </c>
+      <c r="C176" s="1">
+        <v>217</v>
+      </c>
+      <c r="D176" s="2">
+        <v>43903</v>
+      </c>
+      <c r="E176" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H176" s="1">
+        <v>2513571</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B177" s="1">
+        <v>124</v>
+      </c>
+      <c r="C177" s="1">
+        <v>217</v>
+      </c>
+      <c r="D177" s="2">
+        <v>43907</v>
+      </c>
+      <c r="E177" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H177" s="1">
+        <v>2515849</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B178" s="1">
+        <v>124</v>
+      </c>
+      <c r="C178" s="1">
+        <v>217</v>
+      </c>
+      <c r="D178" s="2">
+        <v>43913</v>
+      </c>
+      <c r="E178" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H178" s="1">
+        <v>2519175</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B179" s="1">
+        <v>124</v>
+      </c>
+      <c r="C179" s="1">
+        <v>217</v>
+      </c>
+      <c r="D179" s="2">
+        <v>43913</v>
+      </c>
+      <c r="E179" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H179" s="1">
+        <v>2519176</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B180" s="1">
+        <v>124</v>
+      </c>
+      <c r="C180" s="1">
+        <v>217</v>
+      </c>
+      <c r="D180" s="2">
+        <v>43920</v>
+      </c>
+      <c r="E180" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H180" s="1">
+        <v>2524492</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B181" s="1">
+        <v>124</v>
+      </c>
+      <c r="C181" s="1">
+        <v>217</v>
+      </c>
+      <c r="D181" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E181" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H181" s="1">
+        <v>2525525</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B182" s="1">
+        <v>124</v>
+      </c>
+      <c r="C182" s="1">
+        <v>217</v>
+      </c>
+      <c r="D182" s="2">
+        <v>43927</v>
+      </c>
+      <c r="E182" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H182" s="1">
+        <v>2528911</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B183" s="1">
+        <v>124</v>
+      </c>
+      <c r="C183" s="1">
+        <v>217</v>
+      </c>
+      <c r="D183" s="2">
+        <v>43936</v>
+      </c>
+      <c r="E183" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H183" s="1">
+        <v>2536975</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B184" s="1">
+        <v>124</v>
+      </c>
+      <c r="C184" s="1">
+        <v>217</v>
+      </c>
+      <c r="D184" s="2">
+        <v>43942</v>
+      </c>
+      <c r="E184" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H184" s="1">
+        <v>2540844</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B185" s="1">
+        <v>124</v>
+      </c>
+      <c r="C185" s="1">
+        <v>217</v>
+      </c>
+      <c r="D185" s="2">
+        <v>43944</v>
+      </c>
+      <c r="E185" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H185" s="1">
+        <v>2543130</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B186" s="1">
+        <v>124</v>
+      </c>
+      <c r="C186" s="1">
+        <v>217</v>
+      </c>
+      <c r="D186" s="2">
+        <v>43944</v>
+      </c>
+      <c r="E186" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H186" s="1">
+        <v>2543131</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B187" s="1">
+        <v>124</v>
+      </c>
+      <c r="C187" s="1">
+        <v>217</v>
+      </c>
+      <c r="D187" s="2">
+        <v>43949</v>
+      </c>
+      <c r="E187" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H187" s="1">
+        <v>2545946</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B188" s="1">
+        <v>124</v>
+      </c>
+      <c r="C188" s="1">
+        <v>217</v>
+      </c>
+      <c r="D188" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E188" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H188" s="1">
+        <v>2548199</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B189" s="1">
+        <v>124</v>
+      </c>
+      <c r="C189" s="1">
+        <v>217</v>
+      </c>
+      <c r="D189" s="2">
+        <v>43957</v>
+      </c>
+      <c r="E189" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H189" s="1">
+        <v>2550142</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B190" s="1">
+        <v>124</v>
+      </c>
+      <c r="C190" s="1">
+        <v>217</v>
+      </c>
+      <c r="D190" s="2">
+        <v>43964</v>
+      </c>
+      <c r="E190" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H190" s="1">
+        <v>2553888</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B191" s="1">
+        <v>124</v>
+      </c>
+      <c r="C191" s="1">
+        <v>217</v>
+      </c>
+      <c r="D191" s="2">
+        <v>43965</v>
+      </c>
+      <c r="E191" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H191" s="1">
+        <v>2554728</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B192" s="1">
+        <v>124</v>
+      </c>
+      <c r="C192" s="1">
+        <v>217</v>
+      </c>
+      <c r="D192" s="2">
+        <v>43970</v>
+      </c>
+      <c r="E192" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H192" s="1">
+        <v>2558406</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B193" s="1">
+        <v>124</v>
+      </c>
+      <c r="C193" s="1">
+        <v>217</v>
+      </c>
+      <c r="D193" s="2">
+        <v>43972</v>
+      </c>
+      <c r="E193" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H193" s="1">
+        <v>2560493</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B194" s="1">
+        <v>124</v>
+      </c>
+      <c r="C194" s="1">
+        <v>217</v>
+      </c>
+      <c r="D194" s="2">
+        <v>43977</v>
+      </c>
+      <c r="E194" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H194" s="1">
+        <v>2563137</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B195" s="1">
+        <v>124</v>
+      </c>
+      <c r="C195" s="1">
+        <v>217</v>
+      </c>
+      <c r="D195" s="2">
+        <v>43979</v>
+      </c>
+      <c r="E195" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H195" s="1">
+        <v>2565493</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B196" s="1">
+        <v>124</v>
+      </c>
+      <c r="C196" s="1">
+        <v>217</v>
+      </c>
+      <c r="D196" s="2">
+        <v>43980</v>
+      </c>
+      <c r="E196" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H196" s="1">
+        <v>2566278</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B197" s="1">
+        <v>124</v>
+      </c>
+      <c r="C197" s="1">
+        <v>217</v>
+      </c>
+      <c r="D197" s="2">
+        <v>43983</v>
+      </c>
+      <c r="E197" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H197" s="1">
+        <v>2567790</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B198" s="1">
+        <v>124</v>
+      </c>
+      <c r="C198" s="1">
+        <v>217</v>
+      </c>
+      <c r="D198" s="2">
+        <v>43984</v>
+      </c>
+      <c r="E198" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H198" s="1">
+        <v>2569268</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B199" s="1">
+        <v>124</v>
+      </c>
+      <c r="C199" s="1">
+        <v>217</v>
+      </c>
+      <c r="D199" s="2">
+        <v>43985</v>
+      </c>
+      <c r="E199" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H199" s="1">
+        <v>2570578</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B200" s="1">
+        <v>124</v>
+      </c>
+      <c r="C200" s="1">
+        <v>217</v>
+      </c>
+      <c r="D200" s="2">
+        <v>43992</v>
+      </c>
+      <c r="E200" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H200" s="1">
+        <v>2574950</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B201" s="1">
+        <v>124</v>
+      </c>
+      <c r="C201" s="1">
+        <v>217</v>
+      </c>
+      <c r="D201" s="2">
+        <v>43998</v>
+      </c>
+      <c r="E201" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H201" s="1">
+        <v>2578178</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B202" s="1">
+        <v>124</v>
+      </c>
+      <c r="C202" s="1">
+        <v>217</v>
+      </c>
+      <c r="D202" s="2">
+        <v>44000</v>
+      </c>
+      <c r="E202" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H202" s="1">
+        <v>2580284</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B203" s="1">
+        <v>124</v>
+      </c>
+      <c r="C203" s="1">
+        <v>217</v>
+      </c>
+      <c r="D203" s="2">
+        <v>44005</v>
+      </c>
+      <c r="E203" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H203" s="1">
+        <v>2583126</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B204" s="1">
+        <v>124</v>
+      </c>
+      <c r="C204" s="1">
+        <v>217</v>
+      </c>
+      <c r="D204" s="2">
+        <v>44007</v>
+      </c>
+      <c r="E204" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H204" s="1">
+        <v>2584369</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B205" s="1">
+        <v>124</v>
+      </c>
+      <c r="C205" s="1">
+        <v>217</v>
+      </c>
+      <c r="D205" s="2">
+        <v>44008</v>
+      </c>
+      <c r="E205" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H205" s="1">
+        <v>2585239</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B206" s="1">
+        <v>124</v>
+      </c>
+      <c r="C206" s="1">
+        <v>217</v>
+      </c>
+      <c r="D206" s="2">
+        <v>44011</v>
+      </c>
+      <c r="E206" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H206" s="1">
+        <v>2586462</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B207" s="1">
+        <v>124</v>
+      </c>
+      <c r="C207" s="1">
+        <v>217</v>
+      </c>
+      <c r="D207" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E207" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H207" s="1">
+        <v>2587580</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B208" s="1">
+        <v>124</v>
+      </c>
+      <c r="C208" s="1">
+        <v>217</v>
+      </c>
+      <c r="D208" s="2">
+        <v>44015</v>
+      </c>
+      <c r="E208" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H208" s="1">
+        <v>2590208</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B209" s="1">
+        <v>124</v>
+      </c>
+      <c r="C209" s="1">
+        <v>217</v>
+      </c>
+      <c r="D209" s="2">
+        <v>44019</v>
+      </c>
+      <c r="E209" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H209" s="1">
+        <v>2592585</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B210" s="1">
+        <v>124</v>
+      </c>
+      <c r="C210" s="1">
+        <v>217</v>
+      </c>
+      <c r="D210" s="2">
+        <v>44020</v>
+      </c>
+      <c r="E210" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H210" s="1">
+        <v>2593007</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B211" s="1">
+        <v>124</v>
+      </c>
+      <c r="C211" s="1">
+        <v>217</v>
+      </c>
+      <c r="D211" s="2">
+        <v>44025</v>
+      </c>
+      <c r="E211" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H211" s="1">
+        <v>2595977</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B212" s="1">
+        <v>124</v>
+      </c>
+      <c r="C212" s="1">
+        <v>217</v>
+      </c>
+      <c r="D212" s="2">
+        <v>44028</v>
+      </c>
+      <c r="E212" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H212" s="1">
+        <v>2598947</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B213" s="1">
+        <v>124</v>
+      </c>
+      <c r="C213" s="1">
+        <v>217</v>
+      </c>
+      <c r="D213" s="2">
+        <v>44035</v>
+      </c>
+      <c r="E213" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H213" s="1">
+        <v>2603134</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B214" s="1">
+        <v>124</v>
+      </c>
+      <c r="C214" s="1">
+        <v>217</v>
+      </c>
+      <c r="D214" s="2">
+        <v>44036</v>
+      </c>
+      <c r="E214" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H214" s="1">
+        <v>2604244</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B215" s="1">
+        <v>124</v>
+      </c>
+      <c r="C215" s="1">
+        <v>217</v>
+      </c>
+      <c r="D215" s="2">
+        <v>43839</v>
+      </c>
+      <c r="E215" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H215" s="1">
+        <v>2466645</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B216" s="1">
+        <v>124</v>
+      </c>
+      <c r="C216" s="1">
+        <v>217</v>
+      </c>
+      <c r="D216" s="2">
+        <v>43843</v>
+      </c>
+      <c r="E216" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H216" s="1">
+        <v>2468491</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B217" s="1">
+        <v>124</v>
+      </c>
+      <c r="C217" s="1">
+        <v>217</v>
+      </c>
+      <c r="D217" s="2">
+        <v>43846</v>
+      </c>
+      <c r="E217" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H217" s="1">
+        <v>2471078</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B218" s="1">
+        <v>124</v>
+      </c>
+      <c r="C218" s="1">
+        <v>217</v>
+      </c>
+      <c r="D218" s="2">
+        <v>43852</v>
+      </c>
+      <c r="E218" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H218" s="1">
+        <v>2474855</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B219" s="1">
+        <v>124</v>
+      </c>
+      <c r="C219" s="1">
+        <v>217</v>
+      </c>
+      <c r="D219" s="2">
+        <v>43854</v>
+      </c>
+      <c r="E219" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H219" s="1">
+        <v>2476622</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B220" s="1">
+        <v>124</v>
+      </c>
+      <c r="C220" s="1">
+        <v>217</v>
+      </c>
+      <c r="D220" s="2">
+        <v>43860</v>
+      </c>
+      <c r="E220" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H220" s="1">
+        <v>2481042</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B221" s="1">
+        <v>124</v>
+      </c>
+      <c r="C221" s="1">
+        <v>217</v>
+      </c>
+      <c r="D221" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E221" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H221" s="1">
+        <v>2482690</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B222" s="1">
+        <v>124</v>
+      </c>
+      <c r="C222" s="1">
+        <v>217</v>
+      </c>
+      <c r="D222" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E222" s="1">
+        <v>1824</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H222" s="1">
+        <v>2482690</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B223" s="1">
+        <v>124</v>
+      </c>
+      <c r="C223" s="1">
+        <v>217</v>
+      </c>
+      <c r="D223" s="2">
+        <v>43938</v>
+      </c>
+      <c r="E223" s="1">
+        <v>1825</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H223" s="1">
+        <v>2539262</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B224" s="1">
+        <v>124</v>
+      </c>
+      <c r="C224" s="1">
+        <v>217</v>
+      </c>
+      <c r="D224" s="2">
+        <v>43938</v>
+      </c>
+      <c r="E224" s="1">
+        <v>1825</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H224" s="1">
+        <v>2539291</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B225" s="1">
+        <v>124</v>
+      </c>
+      <c r="C225" s="1">
+        <v>217</v>
+      </c>
+      <c r="D225" s="2">
+        <v>43941</v>
+      </c>
+      <c r="E225" s="1">
+        <v>1825</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H225" s="1">
+        <v>2539870</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B226" s="1">
+        <v>124</v>
+      </c>
+      <c r="C226" s="1">
+        <v>217</v>
+      </c>
+      <c r="D226" s="2">
+        <v>43941</v>
+      </c>
+      <c r="E226" s="1">
+        <v>1825</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H226" s="1">
+        <v>2539871</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B227" s="1">
+        <v>124</v>
+      </c>
+      <c r="C227" s="1">
+        <v>217</v>
+      </c>
+      <c r="D227" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E227" s="1">
+        <v>1825</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H227" s="1">
+        <v>2548199</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B228" s="1">
+        <v>124</v>
+      </c>
+      <c r="C228" s="1">
+        <v>217</v>
+      </c>
+      <c r="D228" s="2">
+        <v>43957</v>
+      </c>
+      <c r="E228" s="1">
+        <v>1825</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H228" s="1">
+        <v>2550142</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B229" s="1">
+        <v>124</v>
+      </c>
+      <c r="C229" s="1">
+        <v>217</v>
+      </c>
+      <c r="D229" s="2">
+        <v>43963</v>
+      </c>
+      <c r="E229" s="1">
+        <v>1825</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H229" s="1">
+        <v>2552874</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B230" s="1">
+        <v>124</v>
+      </c>
+      <c r="C230" s="1">
+        <v>217</v>
+      </c>
+      <c r="D230" s="2">
+        <v>43964</v>
+      </c>
+      <c r="E230" s="1">
+        <v>1825</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H230" s="1">
+        <v>2553888</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B231" s="1">
+        <v>124</v>
+      </c>
+      <c r="C231" s="1">
+        <v>217</v>
+      </c>
+      <c r="D231" s="2">
+        <v>43987</v>
+      </c>
+      <c r="E231" s="1">
+        <v>1825</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H231" s="1">
+        <v>2572488</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B232" s="1">
+        <v>124</v>
+      </c>
+      <c r="C232" s="1">
+        <v>217</v>
+      </c>
+      <c r="D232" s="2">
+        <v>43990</v>
+      </c>
+      <c r="E232" s="1">
+        <v>1825</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H232" s="1">
+        <v>2573244</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A233" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B233" s="1">
+        <v>124</v>
+      </c>
+      <c r="C233" s="1">
+        <v>217</v>
+      </c>
+      <c r="D233" s="2">
+        <v>43942</v>
+      </c>
+      <c r="E233" s="1">
+        <v>1825</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H233" s="1">
+        <v>2540844</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B234" s="1">
+        <v>124</v>
+      </c>
+      <c r="C234" s="1">
+        <v>217</v>
+      </c>
+      <c r="D234" s="2">
+        <v>43942</v>
+      </c>
+      <c r="E234" s="1">
+        <v>1825</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H234" s="1">
+        <v>2540845</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A235" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B235" s="1">
+        <v>124</v>
+      </c>
+      <c r="C235" s="1">
+        <v>217</v>
+      </c>
+      <c r="D235" s="2">
+        <v>43943</v>
+      </c>
+      <c r="E235" s="1">
+        <v>1825</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H235" s="1">
+        <v>2541637</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B236" s="1">
+        <v>124</v>
+      </c>
+      <c r="C236" s="1">
+        <v>217</v>
+      </c>
+      <c r="D236" s="2">
+        <v>43944</v>
+      </c>
+      <c r="E236" s="1">
+        <v>1825</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H236" s="1">
+        <v>2543130</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B237" s="1">
+        <v>124</v>
+      </c>
+      <c r="C237" s="1">
+        <v>217</v>
+      </c>
+      <c r="D237" s="2">
+        <v>43944</v>
+      </c>
+      <c r="E237" s="1">
+        <v>1825</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H237" s="1">
+        <v>2543131</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B238" s="1">
+        <v>124</v>
+      </c>
+      <c r="C238" s="1">
+        <v>217</v>
+      </c>
+      <c r="D238" s="2">
+        <v>43948</v>
+      </c>
+      <c r="E238" s="1">
+        <v>1825</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H238" s="1">
+        <v>2545012</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B239" s="1">
+        <v>124</v>
+      </c>
+      <c r="C239" s="1">
+        <v>217</v>
+      </c>
+      <c r="D239" s="2">
+        <v>43949</v>
+      </c>
+      <c r="E239" s="1">
+        <v>1825</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H239" s="1">
+        <v>2545946</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B240" s="1">
+        <v>124</v>
+      </c>
+      <c r="C240" s="1">
+        <v>217</v>
+      </c>
+      <c r="D240" s="2">
+        <v>44035</v>
+      </c>
+      <c r="E240" s="1">
+        <v>1825</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H240" s="1">
+        <v>2603134</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B241" s="1">
+        <v>124</v>
+      </c>
+      <c r="C241" s="1">
+        <v>217</v>
+      </c>
+      <c r="D241" s="2">
+        <v>43992</v>
+      </c>
+      <c r="E241" s="1">
+        <v>1825</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H241" s="1">
+        <v>2574950</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A242" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B242" s="1">
+        <v>124</v>
+      </c>
+      <c r="C242" s="1">
+        <v>217</v>
+      </c>
+      <c r="D242" s="2">
+        <v>43991</v>
+      </c>
+      <c r="E242" s="1">
+        <v>1825</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H242" s="1">
+        <v>2574073</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A243" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B243" s="1">
+        <v>124</v>
+      </c>
+      <c r="C243" s="1">
+        <v>217</v>
+      </c>
+      <c r="D243" s="2">
+        <v>44005</v>
+      </c>
+      <c r="E243" s="1">
+        <v>1825</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H243" s="1">
+        <v>2583126</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B244" s="1">
+        <v>124</v>
+      </c>
+      <c r="C244" s="1">
+        <v>217</v>
+      </c>
+      <c r="D244" s="2">
+        <v>44025</v>
+      </c>
+      <c r="E244" s="1">
+        <v>1825</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H244" s="1">
+        <v>2595977</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A245" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B245" s="1">
+        <v>124</v>
+      </c>
+      <c r="C245" s="1">
+        <v>217</v>
+      </c>
+      <c r="D245" s="2">
+        <v>43866</v>
+      </c>
+      <c r="E245" s="1">
+        <v>1825</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H245" s="1">
+        <v>2485612</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A246" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B246" s="1">
+        <v>124</v>
+      </c>
+      <c r="C246" s="1">
+        <v>217</v>
+      </c>
+      <c r="D246" s="2">
+        <v>43839</v>
+      </c>
+      <c r="E246" s="1">
+        <v>1825</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H246" s="1">
+        <v>2466115</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A247" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B247" s="1">
+        <v>124</v>
+      </c>
+      <c r="C247" s="1">
+        <v>217</v>
+      </c>
+      <c r="D247" s="2">
+        <v>43840</v>
+      </c>
+      <c r="E247" s="1">
+        <v>1825</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H247" s="1">
+        <v>2467474</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A248" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B248" s="1">
+        <v>124</v>
+      </c>
+      <c r="C248" s="1">
+        <v>217</v>
+      </c>
+      <c r="D248" s="2">
+        <v>43843</v>
+      </c>
+      <c r="E248" s="1">
+        <v>1825</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H248" s="1">
+        <v>2468491</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A249" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B249" s="1">
+        <v>124</v>
+      </c>
+      <c r="C249" s="1">
+        <v>217</v>
+      </c>
+      <c r="D249" s="2">
+        <v>43878</v>
+      </c>
+      <c r="E249" s="1">
+        <v>1825</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H249" s="1">
+        <v>2494166</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A250" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B250" s="1">
+        <v>124</v>
+      </c>
+      <c r="C250" s="1">
+        <v>217</v>
+      </c>
+      <c r="D250" s="2">
+        <v>43879</v>
+      </c>
+      <c r="E250" s="1">
+        <v>1825</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H250" s="1">
+        <v>2495418</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A251" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B251" s="1">
+        <v>124</v>
+      </c>
+      <c r="C251" s="1">
+        <v>217</v>
+      </c>
+      <c r="D251" s="2">
+        <v>43894</v>
+      </c>
+      <c r="E251" s="1">
+        <v>1825</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H251" s="1">
+        <v>2507256</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A252" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B252" s="1">
+        <v>124</v>
+      </c>
+      <c r="C252" s="1">
+        <v>217</v>
+      </c>
+      <c r="D252" s="2">
+        <v>44001</v>
+      </c>
+      <c r="E252" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H252" s="1">
+        <v>2580967</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A253" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B253" s="1">
+        <v>124</v>
+      </c>
+      <c r="C253" s="1">
+        <v>217</v>
+      </c>
+      <c r="D253" s="2">
+        <v>44004</v>
+      </c>
+      <c r="E253" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H253" s="1">
+        <v>2582080</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A254" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B254" s="1">
+        <v>124</v>
+      </c>
+      <c r="C254" s="1">
+        <v>217</v>
+      </c>
+      <c r="D254" s="2">
+        <v>44005</v>
+      </c>
+      <c r="E254" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H254" s="1">
+        <v>2583126</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A255" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B255" s="1">
+        <v>124</v>
+      </c>
+      <c r="C255" s="1">
+        <v>217</v>
+      </c>
+      <c r="D255" s="2">
+        <v>44005</v>
+      </c>
+      <c r="E255" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H255" s="1">
+        <v>2583126</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A256" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B256" s="1">
+        <v>124</v>
+      </c>
+      <c r="C256" s="1">
+        <v>217</v>
+      </c>
+      <c r="D256" s="2">
+        <v>44007</v>
+      </c>
+      <c r="E256" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H256" s="1">
+        <v>2584369</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A257" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B257" s="1">
+        <v>124</v>
+      </c>
+      <c r="C257" s="1">
+        <v>217</v>
+      </c>
+      <c r="D257" s="2">
+        <v>44008</v>
+      </c>
+      <c r="E257" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H257" s="1">
+        <v>2585239</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A258" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B258" s="1">
+        <v>124</v>
+      </c>
+      <c r="C258" s="1">
+        <v>217</v>
+      </c>
+      <c r="D258" s="2">
+        <v>44008</v>
+      </c>
+      <c r="E258" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H258" s="1">
+        <v>2585239</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A259" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B259" s="1">
+        <v>124</v>
+      </c>
+      <c r="C259" s="1">
+        <v>217</v>
+      </c>
+      <c r="D259" s="2">
+        <v>44008</v>
+      </c>
+      <c r="E259" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H259" s="1">
+        <v>2585239</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A260" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B260" s="1">
+        <v>124</v>
+      </c>
+      <c r="C260" s="1">
+        <v>217</v>
+      </c>
+      <c r="D260" s="2">
+        <v>44008</v>
+      </c>
+      <c r="E260" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G260" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H260" s="1">
+        <v>2585239</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A261" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B261" s="1">
+        <v>124</v>
+      </c>
+      <c r="C261" s="1">
+        <v>217</v>
+      </c>
+      <c r="D261" s="2">
+        <v>44008</v>
+      </c>
+      <c r="E261" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H261" s="1">
+        <v>2585239</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A262" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B262" s="1">
+        <v>124</v>
+      </c>
+      <c r="C262" s="1">
+        <v>217</v>
+      </c>
+      <c r="D262" s="2">
+        <v>44008</v>
+      </c>
+      <c r="E262" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H262" s="1">
+        <v>2585239</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A263" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B263" s="1">
+        <v>124</v>
+      </c>
+      <c r="C263" s="1">
+        <v>217</v>
+      </c>
+      <c r="D263" s="2">
+        <v>44008</v>
+      </c>
+      <c r="E263" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H263" s="1">
+        <v>2585239</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A264" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B264" s="1">
+        <v>124</v>
+      </c>
+      <c r="C264" s="1">
+        <v>217</v>
+      </c>
+      <c r="D264" s="2">
+        <v>44008</v>
+      </c>
+      <c r="E264" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H264" s="1">
+        <v>2585239</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A265" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B265" s="1">
+        <v>124</v>
+      </c>
+      <c r="C265" s="1">
+        <v>217</v>
+      </c>
+      <c r="D265" s="2">
+        <v>44008</v>
+      </c>
+      <c r="E265" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H265" s="1">
+        <v>2585239</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A266" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B266" s="1">
+        <v>124</v>
+      </c>
+      <c r="C266" s="1">
+        <v>217</v>
+      </c>
+      <c r="D266" s="2">
+        <v>44011</v>
+      </c>
+      <c r="E266" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H266" s="1">
+        <v>2586462</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A267" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B267" s="1">
+        <v>124</v>
+      </c>
+      <c r="C267" s="1">
+        <v>217</v>
+      </c>
+      <c r="D267" s="2">
+        <v>44014</v>
+      </c>
+      <c r="E267" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H267" s="1">
+        <v>2588824</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A268" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B268" s="1">
+        <v>124</v>
+      </c>
+      <c r="C268" s="1">
+        <v>217</v>
+      </c>
+      <c r="D268" s="2">
+        <v>44015</v>
+      </c>
+      <c r="E268" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H268" s="1">
+        <v>2590208</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A269" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B269" s="1">
+        <v>124</v>
+      </c>
+      <c r="C269" s="1">
+        <v>217</v>
+      </c>
+      <c r="D269" s="2">
+        <v>44018</v>
+      </c>
+      <c r="E269" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H269" s="1">
+        <v>2591349</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A270" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B270" s="1">
+        <v>124</v>
+      </c>
+      <c r="C270" s="1">
+        <v>217</v>
+      </c>
+      <c r="D270" s="2">
+        <v>44019</v>
+      </c>
+      <c r="E270" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H270" s="1">
+        <v>2592585</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A271" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B271" s="1">
+        <v>124</v>
+      </c>
+      <c r="C271" s="1">
+        <v>217</v>
+      </c>
+      <c r="D271" s="2">
+        <v>44021</v>
+      </c>
+      <c r="E271" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H271" s="1">
+        <v>2594225</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A272" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B272" s="1">
+        <v>124</v>
+      </c>
+      <c r="C272" s="1">
+        <v>217</v>
+      </c>
+      <c r="D272" s="2">
+        <v>44022</v>
+      </c>
+      <c r="E272" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H272" s="1">
+        <v>2595189</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A273" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B273" s="1">
+        <v>124</v>
+      </c>
+      <c r="C273" s="1">
+        <v>217</v>
+      </c>
+      <c r="D273" s="2">
+        <v>44027</v>
+      </c>
+      <c r="E273" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G273" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H273" s="1">
+        <v>2597614</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A274" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B274" s="1">
+        <v>124</v>
+      </c>
+      <c r="C274" s="1">
+        <v>217</v>
+      </c>
+      <c r="D274" s="2">
+        <v>44028</v>
+      </c>
+      <c r="E274" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G274" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H274" s="1">
+        <v>2598947</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A275" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B275" s="1">
+        <v>124</v>
+      </c>
+      <c r="C275" s="1">
+        <v>217</v>
+      </c>
+      <c r="D275" s="2">
+        <v>44033</v>
+      </c>
+      <c r="E275" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G275" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H275" s="1">
+        <v>2601604</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A276" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B276" s="1">
+        <v>124</v>
+      </c>
+      <c r="C276" s="1">
+        <v>217</v>
+      </c>
+      <c r="D276" s="2">
+        <v>44033</v>
+      </c>
+      <c r="E276" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G276" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H276" s="1">
+        <v>2601604</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A277" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B277" s="1">
+        <v>124</v>
+      </c>
+      <c r="C277" s="1">
+        <v>217</v>
+      </c>
+      <c r="D277" s="2">
+        <v>44034</v>
+      </c>
+      <c r="E277" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G277" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H277" s="1">
+        <v>2602111</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A278" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B278" s="1">
+        <v>124</v>
+      </c>
+      <c r="C278" s="1">
+        <v>217</v>
+      </c>
+      <c r="D278" s="2">
+        <v>44035</v>
+      </c>
+      <c r="E278" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G278" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H278" s="1">
+        <v>2603134</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A279" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B279" s="1">
+        <v>124</v>
+      </c>
+      <c r="C279" s="1">
+        <v>217</v>
+      </c>
+      <c r="D279" s="2">
+        <v>43917</v>
+      </c>
+      <c r="E279" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H279" s="1">
+        <v>2523688</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A280" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B280" s="1">
+        <v>124</v>
+      </c>
+      <c r="C280" s="1">
+        <v>217</v>
+      </c>
+      <c r="D280" s="2">
+        <v>43917</v>
+      </c>
+      <c r="E280" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H280" s="1">
+        <v>2523688</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A281" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B281" s="1">
+        <v>124</v>
+      </c>
+      <c r="C281" s="1">
+        <v>217</v>
+      </c>
+      <c r="D281" s="2">
+        <v>43920</v>
+      </c>
+      <c r="E281" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H281" s="1">
+        <v>2524492</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A282" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B282" s="1">
+        <v>124</v>
+      </c>
+      <c r="C282" s="1">
+        <v>217</v>
+      </c>
+      <c r="D282" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E282" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H282" s="1">
+        <v>2525525</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A283" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B283" s="1">
+        <v>124</v>
+      </c>
+      <c r="C283" s="1">
+        <v>217</v>
+      </c>
+      <c r="D283" s="2">
+        <v>43922</v>
+      </c>
+      <c r="E283" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H283" s="1">
+        <v>2526417</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A284" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B284" s="1">
+        <v>124</v>
+      </c>
+      <c r="C284" s="1">
+        <v>217</v>
+      </c>
+      <c r="D284" s="2">
+        <v>43922</v>
+      </c>
+      <c r="E284" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H284" s="1">
+        <v>2526417</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A285" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B285" s="1">
+        <v>124</v>
+      </c>
+      <c r="C285" s="1">
+        <v>217</v>
+      </c>
+      <c r="D285" s="2">
+        <v>43927</v>
+      </c>
+      <c r="E285" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G285" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H285" s="1">
+        <v>2528913</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A286" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B286" s="1">
+        <v>124</v>
+      </c>
+      <c r="C286" s="1">
+        <v>217</v>
+      </c>
+      <c r="D286" s="2">
+        <v>43927</v>
+      </c>
+      <c r="E286" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G286" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H286" s="1">
+        <v>2528913</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A287" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B287" s="1">
+        <v>124</v>
+      </c>
+      <c r="C287" s="1">
+        <v>217</v>
+      </c>
+      <c r="D287" s="2">
+        <v>43927</v>
+      </c>
+      <c r="E287" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H287" s="1">
+        <v>2528913</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A288" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B288" s="1">
+        <v>124</v>
+      </c>
+      <c r="C288" s="1">
+        <v>217</v>
+      </c>
+      <c r="D288" s="2">
+        <v>43928</v>
+      </c>
+      <c r="E288" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H288" s="1">
+        <v>2529999</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A289" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B289" s="1">
+        <v>124</v>
+      </c>
+      <c r="C289" s="1">
+        <v>217</v>
+      </c>
+      <c r="D289" s="2">
+        <v>43929</v>
+      </c>
+      <c r="E289" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H289" s="1">
+        <v>2531306</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A290" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B290" s="1">
+        <v>124</v>
+      </c>
+      <c r="C290" s="1">
+        <v>217</v>
+      </c>
+      <c r="D290" s="2">
+        <v>43930</v>
+      </c>
+      <c r="E290" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H290" s="1">
+        <v>2532871</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A291" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B291" s="1">
+        <v>124</v>
+      </c>
+      <c r="C291" s="1">
+        <v>217</v>
+      </c>
+      <c r="D291" s="2">
+        <v>43930</v>
+      </c>
+      <c r="E291" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H291" s="1">
+        <v>2532871</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A292" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B292" s="1">
+        <v>124</v>
+      </c>
+      <c r="C292" s="1">
+        <v>217</v>
+      </c>
+      <c r="D292" s="2">
+        <v>43931</v>
+      </c>
+      <c r="E292" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H292" s="1">
+        <v>2533924</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A293" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B293" s="1">
+        <v>124</v>
+      </c>
+      <c r="C293" s="1">
+        <v>217</v>
+      </c>
+      <c r="D293" s="2">
+        <v>43935</v>
+      </c>
+      <c r="E293" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H293" s="1">
+        <v>2535917</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A294" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B294" s="1">
+        <v>124</v>
+      </c>
+      <c r="C294" s="1">
+        <v>217</v>
+      </c>
+      <c r="D294" s="2">
+        <v>43936</v>
+      </c>
+      <c r="E294" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H294" s="1">
+        <v>2536974</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A295" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B295" s="1">
+        <v>124</v>
+      </c>
+      <c r="C295" s="1">
+        <v>217</v>
+      </c>
+      <c r="D295" s="2">
+        <v>43937</v>
+      </c>
+      <c r="E295" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G295" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H295" s="1">
+        <v>2537872</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A296" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B296" s="1">
+        <v>124</v>
+      </c>
+      <c r="C296" s="1">
+        <v>217</v>
+      </c>
+      <c r="D296" s="2">
+        <v>43938</v>
+      </c>
+      <c r="E296" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G296" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H296" s="1">
+        <v>2539291</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A297" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B297" s="1">
+        <v>124</v>
+      </c>
+      <c r="C297" s="1">
+        <v>217</v>
+      </c>
+      <c r="D297" s="2">
+        <v>43942</v>
+      </c>
+      <c r="E297" s="1">
+        <v>1826</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H297" s="1">
+        <v>2540844</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/classification_of_payment_documents/example_table.xlsx
+++ b/classification_of_payment_documents/example_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasialavrova/diplom/bmstu_bachelor_qualification_work/classification_of_payment_documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F32C120-200B-9C4E-BED9-3E80C1B3C8DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EB64ED-226A-8C49-A2E9-7D53418DC7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="1000" windowWidth="27640" windowHeight="15100" xr2:uid="{0D99C4A0-3FAD-3F4A-9C43-A9C82BCCA544}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>Получение денежных средств на р/с</t>
   </si>
   <si>
-    <t>ЗА 10/02/2020;БЫЧКОВА АНАСТАСИЯ ВЛАДИМИРОВНА;ОПЛ. УСЛУГ СТРАХОВАНИЯ ПО ДОГОВОРУ НАКОПИТЕЛЬНОГО СТРАХОВАНИЯ ЖИЗНИ №0340780408052 ОТ 15 ИЮНЯ 2018</t>
-  </si>
-  <si>
     <t>ЗА 10/02/2020;КУТЛУЮЛОВА ДИЛЯ РАФАЭЛОВНА;0340020443303</t>
   </si>
   <si>
@@ -832,6 +829,9 @@
   </si>
   <si>
     <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ ПАО "ГАЗПРОМ НЕФТЬ" (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 39.14РУБ.), ГРН 4B02-03-00146-A-001P , КОЛ-ВО ЦБ - 166601ШТ. БЕЗНДС</t>
+  </si>
+  <si>
+    <t>ЗА 10/02/2020;БЫЧКОВА "АНАСТАСИЯ" ВЛАДИМИРОВНА;ОПЛ. УСЛУГ СТРАХОВАНИЯ ПО ДОГОВОРУ НАКОПИТЕЛЬНОГО СТРАХОВАНИЯ ЖИЗНИ №0340780408052 ОТ 15 ИЮНЯ 2018</t>
   </si>
 </sst>
 </file>
@@ -1203,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0A4823-B8C1-F54A-A299-81C21B5A1A62}">
   <dimension ref="A1:H297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="G311" sqref="G311"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="G142" sqref="G142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1263,7 +1263,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>268</v>
       </c>
       <c r="H2" s="1">
         <v>2490286</v>
@@ -1289,7 +1289,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1">
         <v>2490286</v>
@@ -1315,7 +1315,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="1">
         <v>2469933</v>
@@ -1341,7 +1341,7 @@
         <v>9</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="1">
         <v>2469933</v>
@@ -1367,7 +1367,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="1">
         <v>2469933</v>
@@ -1393,7 +1393,7 @@
         <v>9</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" s="1">
         <v>2469933</v>
@@ -1419,7 +1419,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" s="1">
         <v>2469933</v>
@@ -1445,7 +1445,7 @@
         <v>9</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H9" s="1">
         <v>2469933</v>
@@ -1471,7 +1471,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" s="1">
         <v>2469933</v>
@@ -1497,7 +1497,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H11" s="1">
         <v>2469933</v>
@@ -1523,7 +1523,7 @@
         <v>9</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12" s="1">
         <v>2469933</v>
@@ -1549,7 +1549,7 @@
         <v>9</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H13" s="1">
         <v>2469933</v>
@@ -1575,7 +1575,7 @@
         <v>9</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H14" s="1">
         <v>2469933</v>
@@ -1601,7 +1601,7 @@
         <v>9</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H15" s="1">
         <v>2469933</v>
@@ -1627,7 +1627,7 @@
         <v>9</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H16" s="1">
         <v>2469933</v>
@@ -1653,7 +1653,7 @@
         <v>9</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H17" s="1">
         <v>2469933</v>
@@ -1679,7 +1679,7 @@
         <v>9</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H18" s="1">
         <v>2469933</v>
@@ -1705,7 +1705,7 @@
         <v>9</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H19" s="1">
         <v>2466314</v>
@@ -1731,7 +1731,7 @@
         <v>9</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H20" s="1">
         <v>2466315</v>
@@ -1757,7 +1757,7 @@
         <v>9</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H21" s="1">
         <v>2466315</v>
@@ -1783,7 +1783,7 @@
         <v>9</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H22" s="1">
         <v>2466315</v>
@@ -1809,7 +1809,7 @@
         <v>9</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H23" s="1">
         <v>2466315</v>
@@ -1835,7 +1835,7 @@
         <v>9</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H24" s="1">
         <v>2466315</v>
@@ -1861,7 +1861,7 @@
         <v>9</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H25" s="1">
         <v>2467260</v>
@@ -1887,7 +1887,7 @@
         <v>9</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H26" s="1">
         <v>2467261</v>
@@ -1913,7 +1913,7 @@
         <v>9</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H27" s="1">
         <v>2467261</v>
@@ -1939,7 +1939,7 @@
         <v>9</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28" s="1">
         <v>2467261</v>
@@ -1965,7 +1965,7 @@
         <v>9</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H29" s="1">
         <v>2467261</v>
@@ -1991,7 +1991,7 @@
         <v>9</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H30" s="1">
         <v>2467261</v>
@@ -2017,7 +2017,7 @@
         <v>9</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H31" s="1">
         <v>2467261</v>
@@ -2043,7 +2043,7 @@
         <v>9</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H32" s="1">
         <v>2467261</v>
@@ -2069,7 +2069,7 @@
         <v>9</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H33" s="1">
         <v>2467261</v>
@@ -2095,7 +2095,7 @@
         <v>9</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H34" s="1">
         <v>2467263</v>
@@ -2121,7 +2121,7 @@
         <v>9</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H35" s="1">
         <v>2469315</v>
@@ -2147,7 +2147,7 @@
         <v>9</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H36" s="1">
         <v>2469316</v>
@@ -2173,7 +2173,7 @@
         <v>9</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H37" s="1">
         <v>2469316</v>
@@ -2199,7 +2199,7 @@
         <v>9</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" s="1">
         <v>2469316</v>
@@ -2225,7 +2225,7 @@
         <v>9</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" s="1">
         <v>2469316</v>
@@ -2251,7 +2251,7 @@
         <v>9</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H40" s="1">
         <v>2469316</v>
@@ -2277,7 +2277,7 @@
         <v>9</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H41" s="1">
         <v>2469316</v>
@@ -2303,7 +2303,7 @@
         <v>9</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H42" s="1">
         <v>2469316</v>
@@ -2329,7 +2329,7 @@
         <v>9</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H43" s="1">
         <v>2469316</v>
@@ -2355,7 +2355,7 @@
         <v>9</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H44" s="1">
         <v>2469316</v>
@@ -2381,7 +2381,7 @@
         <v>9</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H45" s="1">
         <v>2469316</v>
@@ -2407,7 +2407,7 @@
         <v>9</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H46" s="1">
         <v>2469316</v>
@@ -2433,7 +2433,7 @@
         <v>9</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H47" s="1">
         <v>2469316</v>
@@ -2459,7 +2459,7 @@
         <v>9</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H48" s="1">
         <v>2469316</v>
@@ -2485,7 +2485,7 @@
         <v>9</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H49" s="1">
         <v>2469316</v>
@@ -2511,7 +2511,7 @@
         <v>9</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H50" s="1">
         <v>2469316</v>
@@ -2534,10 +2534,10 @@
         <v>1801</v>
       </c>
       <c r="F51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="H51" s="1">
         <v>2466314</v>
@@ -2560,10 +2560,10 @@
         <v>1801</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H52" s="1">
         <v>2466314</v>
@@ -2586,10 +2586,10 @@
         <v>1801</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H53" s="1">
         <v>2466314</v>
@@ -2612,10 +2612,10 @@
         <v>1801</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H54" s="1">
         <v>2466314</v>
@@ -2638,10 +2638,10 @@
         <v>1801</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H55" s="1">
         <v>2466314</v>
@@ -2664,10 +2664,10 @@
         <v>1801</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H56" s="1">
         <v>2466314</v>
@@ -2690,10 +2690,10 @@
         <v>1801</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H57" s="1">
         <v>2466315</v>
@@ -2716,10 +2716,10 @@
         <v>1801</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H58" s="1">
         <v>2466315</v>
@@ -2742,10 +2742,10 @@
         <v>1801</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H59" s="1">
         <v>2466315</v>
@@ -2768,10 +2768,10 @@
         <v>1801</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H60" s="1">
         <v>2466315</v>
@@ -2794,10 +2794,10 @@
         <v>1801</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H61" s="1">
         <v>2466315</v>
@@ -2820,10 +2820,10 @@
         <v>1801</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H62" s="1">
         <v>2466315</v>
@@ -2846,10 +2846,10 @@
         <v>1801</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H63" s="1">
         <v>2466315</v>
@@ -2872,10 +2872,10 @@
         <v>1801</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H64" s="1">
         <v>2469933</v>
@@ -2898,10 +2898,10 @@
         <v>1801</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H65" s="1">
         <v>2469933</v>
@@ -2924,10 +2924,10 @@
         <v>1801</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H66" s="1">
         <v>2469933</v>
@@ -2950,10 +2950,10 @@
         <v>1801</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H67" s="1">
         <v>2467260</v>
@@ -2976,10 +2976,10 @@
         <v>1801</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H68" s="1">
         <v>2467260</v>
@@ -3002,10 +3002,10 @@
         <v>1801</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H69" s="1">
         <v>2467261</v>
@@ -3028,10 +3028,10 @@
         <v>1801</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H70" s="1">
         <v>2467261</v>
@@ -3054,10 +3054,10 @@
         <v>1801</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H71" s="1">
         <v>2467261</v>
@@ -3080,10 +3080,10 @@
         <v>1801</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H72" s="1">
         <v>2467261</v>
@@ -3106,10 +3106,10 @@
         <v>1801</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H73" s="1">
         <v>2468156</v>
@@ -3132,10 +3132,10 @@
         <v>1801</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H74" s="1">
         <v>2468156</v>
@@ -3158,10 +3158,10 @@
         <v>1801</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H75" s="1">
         <v>2469315</v>
@@ -3184,10 +3184,10 @@
         <v>1801</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H76" s="1">
         <v>2469315</v>
@@ -3210,10 +3210,10 @@
         <v>1801</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H77" s="1">
         <v>2469316</v>
@@ -3236,10 +3236,10 @@
         <v>1801</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H78" s="1">
         <v>2469316</v>
@@ -3262,10 +3262,10 @@
         <v>1801</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H79" s="1">
         <v>2469316</v>
@@ -3288,10 +3288,10 @@
         <v>1801</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H80" s="1">
         <v>2469933</v>
@@ -3314,10 +3314,10 @@
         <v>1801</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H81" s="1">
         <v>2470866</v>
@@ -3340,10 +3340,10 @@
         <v>1801</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H82" s="1">
         <v>2470867</v>
@@ -3366,10 +3366,10 @@
         <v>1801</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H83" s="1">
         <v>2470867</v>
@@ -3392,10 +3392,10 @@
         <v>1801</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1">
         <v>2470867</v>
@@ -3418,10 +3418,10 @@
         <v>1801</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H85" s="1">
         <v>2470867</v>
@@ -3444,10 +3444,10 @@
         <v>1801</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H86" s="1">
         <v>2470867</v>
@@ -3470,10 +3470,10 @@
         <v>1801</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H87" s="1">
         <v>2470867</v>
@@ -3496,10 +3496,10 @@
         <v>1801</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H88" s="1">
         <v>2470867</v>
@@ -3522,10 +3522,10 @@
         <v>1801</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H89" s="1">
         <v>2470867</v>
@@ -3548,10 +3548,10 @@
         <v>1801</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H90" s="1">
         <v>2470867</v>
@@ -3574,10 +3574,10 @@
         <v>1801</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H91" s="1">
         <v>2470867</v>
@@ -3600,10 +3600,10 @@
         <v>1801</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H92" s="1">
         <v>2470867</v>
@@ -3626,10 +3626,10 @@
         <v>1801</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H93" s="1">
         <v>2470867</v>
@@ -3652,10 +3652,10 @@
         <v>1801</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H94" s="1">
         <v>2470868</v>
@@ -3678,10 +3678,10 @@
         <v>1801</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H95" s="1">
         <v>2471898</v>
@@ -3704,10 +3704,10 @@
         <v>1801</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H96" s="1">
         <v>2471898</v>
@@ -3730,10 +3730,10 @@
         <v>1801</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H97" s="1">
         <v>2471899</v>
@@ -3756,10 +3756,10 @@
         <v>1801</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H98" s="1">
         <v>2472782</v>
@@ -3782,10 +3782,10 @@
         <v>1801</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H99" s="1">
         <v>2480853</v>
@@ -3808,10 +3808,10 @@
         <v>1801</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H100" s="1">
         <v>2480854</v>
@@ -3834,10 +3834,10 @@
         <v>2295</v>
       </c>
       <c r="F101" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G101" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="H101" s="1">
         <v>2469315</v>
@@ -3860,10 +3860,10 @@
         <v>2295</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H102" s="1">
         <v>2470866</v>
@@ -3886,10 +3886,10 @@
         <v>2295</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H103" s="1">
         <v>2470868</v>
@@ -3912,10 +3912,10 @@
         <v>2295</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H104" s="1">
         <v>2471899</v>
@@ -3938,10 +3938,10 @@
         <v>2295</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H105" s="1">
         <v>2466314</v>
@@ -3964,10 +3964,10 @@
         <v>2295</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H106" s="1">
         <v>2487125</v>
@@ -3990,10 +3990,10 @@
         <v>1799</v>
       </c>
       <c r="F107" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G107" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="H107" s="1">
         <v>2481042</v>
@@ -4016,10 +4016,10 @@
         <v>1804</v>
       </c>
       <c r="F108" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G108" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="H108" s="1">
         <v>2579197</v>
@@ -4042,10 +4042,10 @@
         <v>1809</v>
       </c>
       <c r="F109" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G109" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H109" s="1">
         <v>2468491</v>
@@ -4068,10 +4068,10 @@
         <v>1809</v>
       </c>
       <c r="F110" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G110" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H110" s="1">
         <v>2471078</v>
@@ -4094,10 +4094,10 @@
         <v>1809</v>
       </c>
       <c r="F111" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G111" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H111" s="1">
         <v>2474855</v>
@@ -4120,10 +4120,10 @@
         <v>1809</v>
       </c>
       <c r="F112" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G112" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H112" s="1">
         <v>2476622</v>
@@ -4146,10 +4146,10 @@
         <v>1809</v>
       </c>
       <c r="F113" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G113" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H113" s="1">
         <v>2481042</v>
@@ -4172,10 +4172,10 @@
         <v>1809</v>
       </c>
       <c r="F114" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G114" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H114" s="1">
         <v>2482690</v>
@@ -4198,10 +4198,10 @@
         <v>1809</v>
       </c>
       <c r="F115" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G115" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H115" s="1">
         <v>2485612</v>
@@ -4224,10 +4224,10 @@
         <v>1809</v>
       </c>
       <c r="F116" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G116" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H116" s="1">
         <v>2487345</v>
@@ -4250,10 +4250,10 @@
         <v>1809</v>
       </c>
       <c r="F117" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G117" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H117" s="1">
         <v>2489404</v>
@@ -4276,10 +4276,10 @@
         <v>1809</v>
       </c>
       <c r="F118" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G118" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H118" s="1">
         <v>2489404</v>
@@ -4302,10 +4302,10 @@
         <v>1809</v>
       </c>
       <c r="F119" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G119" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H119" s="1">
         <v>2490244</v>
@@ -4328,10 +4328,10 @@
         <v>1809</v>
       </c>
       <c r="F120" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G120" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H120" s="1">
         <v>2491085</v>
@@ -4354,10 +4354,10 @@
         <v>1809</v>
       </c>
       <c r="F121" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G121" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H121" s="1">
         <v>2492324</v>
@@ -4380,10 +4380,10 @@
         <v>1809</v>
       </c>
       <c r="F122" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G122" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H122" s="1">
         <v>2495418</v>
@@ -4406,10 +4406,10 @@
         <v>1809</v>
       </c>
       <c r="F123" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G123" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H123" s="1">
         <v>2496532</v>
@@ -4432,10 +4432,10 @@
         <v>1809</v>
       </c>
       <c r="F124" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G124" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H124" s="1">
         <v>2519175</v>
@@ -4458,10 +4458,10 @@
         <v>1809</v>
       </c>
       <c r="F125" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G125" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H125" s="1">
         <v>2519176</v>
@@ -4484,10 +4484,10 @@
         <v>1809</v>
       </c>
       <c r="F126" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G126" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H126" s="1">
         <v>2524492</v>
@@ -4510,10 +4510,10 @@
         <v>1809</v>
       </c>
       <c r="F127" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G127" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H127" s="1">
         <v>2528911</v>
@@ -4536,10 +4536,10 @@
         <v>1809</v>
       </c>
       <c r="F128" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G128" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H128" s="1">
         <v>2536975</v>
@@ -4562,10 +4562,10 @@
         <v>1809</v>
       </c>
       <c r="F129" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G129" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H129" s="1">
         <v>2540844</v>
@@ -4588,10 +4588,10 @@
         <v>1809</v>
       </c>
       <c r="F130" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G130" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H130" s="1">
         <v>2543130</v>
@@ -4614,10 +4614,10 @@
         <v>1809</v>
       </c>
       <c r="F131" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G131" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H131" s="1">
         <v>2543131</v>
@@ -4640,10 +4640,10 @@
         <v>1809</v>
       </c>
       <c r="F132" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G132" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H132" s="1">
         <v>2545946</v>
@@ -4666,10 +4666,10 @@
         <v>1809</v>
       </c>
       <c r="F133" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G133" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H133" s="1">
         <v>2550142</v>
@@ -4692,10 +4692,10 @@
         <v>1809</v>
       </c>
       <c r="F134" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G134" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H134" s="1">
         <v>2553888</v>
@@ -4718,10 +4718,10 @@
         <v>1809</v>
       </c>
       <c r="F135" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G135" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H135" s="1">
         <v>2554728</v>
@@ -4744,10 +4744,10 @@
         <v>1809</v>
       </c>
       <c r="F136" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G136" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H136" s="1">
         <v>2558406</v>
@@ -4770,10 +4770,10 @@
         <v>1809</v>
       </c>
       <c r="F137" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G137" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H137" s="1">
         <v>2560493</v>
@@ -4796,10 +4796,10 @@
         <v>1809</v>
       </c>
       <c r="F138" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G138" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H138" s="1">
         <v>2563137</v>
@@ -4822,10 +4822,10 @@
         <v>1809</v>
       </c>
       <c r="F139" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G139" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H139" s="1">
         <v>2565493</v>
@@ -4848,10 +4848,10 @@
         <v>1809</v>
       </c>
       <c r="F140" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G140" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H140" s="1">
         <v>2567790</v>
@@ -4874,10 +4874,10 @@
         <v>1809</v>
       </c>
       <c r="F141" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G141" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H141" s="1">
         <v>2569268</v>
@@ -4900,10 +4900,10 @@
         <v>1809</v>
       </c>
       <c r="F142" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G142" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H142" s="1">
         <v>2570578</v>
@@ -4926,10 +4926,10 @@
         <v>1809</v>
       </c>
       <c r="F143" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G143" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H143" s="1">
         <v>2574950</v>
@@ -4952,10 +4952,10 @@
         <v>1809</v>
       </c>
       <c r="F144" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G144" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H144" s="1">
         <v>2578178</v>
@@ -4978,10 +4978,10 @@
         <v>1809</v>
       </c>
       <c r="F145" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G145" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H145" s="1">
         <v>2579197</v>
@@ -5004,10 +5004,10 @@
         <v>1809</v>
       </c>
       <c r="F146" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G146" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H146" s="1">
         <v>2580284</v>
@@ -5030,10 +5030,10 @@
         <v>1809</v>
       </c>
       <c r="F147" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G147" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H147" s="1">
         <v>2583126</v>
@@ -5056,10 +5056,10 @@
         <v>1809</v>
       </c>
       <c r="F148" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G148" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H148" s="1">
         <v>2584369</v>
@@ -5082,10 +5082,10 @@
         <v>1809</v>
       </c>
       <c r="F149" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G149" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H149" s="1">
         <v>2585239</v>
@@ -5108,10 +5108,10 @@
         <v>1809</v>
       </c>
       <c r="F150" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G150" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="H150" s="1">
         <v>2586462</v>
@@ -5134,10 +5134,10 @@
         <v>1816</v>
       </c>
       <c r="F151" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G151" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="H151" s="1">
         <v>2489404</v>
@@ -5160,10 +5160,10 @@
         <v>1816</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H152" s="1">
         <v>2489404</v>
@@ -5186,10 +5186,10 @@
         <v>1816</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H153" s="1">
         <v>2516487</v>
@@ -5212,10 +5212,10 @@
         <v>1816</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H154" s="1">
         <v>2514429</v>
@@ -5238,10 +5238,10 @@
         <v>1816</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H155" s="1">
         <v>2510470</v>
@@ -5264,10 +5264,10 @@
         <v>1817</v>
       </c>
       <c r="F156" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G156" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="H156" s="1">
         <v>2487345</v>
@@ -5290,10 +5290,10 @@
         <v>1817</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H157" s="1">
         <v>2487345</v>
@@ -5316,10 +5316,10 @@
         <v>1821</v>
       </c>
       <c r="F158" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G158" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="H158" s="1">
         <v>2485612</v>
@@ -5342,10 +5342,10 @@
         <v>1821</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H159" s="1">
         <v>2580967</v>
@@ -5368,10 +5368,10 @@
         <v>1824</v>
       </c>
       <c r="F160" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G160" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="H160" s="1">
         <v>2485612</v>
@@ -5394,10 +5394,10 @@
         <v>1824</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H161" s="1">
         <v>2487345</v>
@@ -5420,10 +5420,10 @@
         <v>1824</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H162" s="1">
         <v>2487345</v>
@@ -5446,10 +5446,10 @@
         <v>1824</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H163" s="1">
         <v>2489404</v>
@@ -5472,10 +5472,10 @@
         <v>1824</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H164" s="1">
         <v>2489404</v>
@@ -5498,10 +5498,10 @@
         <v>1824</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H165" s="1">
         <v>2490244</v>
@@ -5524,10 +5524,10 @@
         <v>1824</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H166" s="1">
         <v>2491085</v>
@@ -5550,10 +5550,10 @@
         <v>1824</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H167" s="1">
         <v>2492324</v>
@@ -5576,10 +5576,10 @@
         <v>1824</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H168" s="1">
         <v>2495418</v>
@@ -5602,10 +5602,10 @@
         <v>1824</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H169" s="1">
         <v>2496532</v>
@@ -5628,10 +5628,10 @@
         <v>1824</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H170" s="1">
         <v>2500221</v>
@@ -5654,10 +5654,10 @@
         <v>1824</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H171" s="1">
         <v>2501004</v>
@@ -5680,10 +5680,10 @@
         <v>1824</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H172" s="1">
         <v>2503886</v>
@@ -5706,10 +5706,10 @@
         <v>1824</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H173" s="1">
         <v>2503886</v>
@@ -5732,10 +5732,10 @@
         <v>1824</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H174" s="1">
         <v>2507851</v>
@@ -5758,10 +5758,10 @@
         <v>1824</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H175" s="1">
         <v>2510470</v>
@@ -5784,10 +5784,10 @@
         <v>1824</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H176" s="1">
         <v>2513571</v>
@@ -5810,10 +5810,10 @@
         <v>1824</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H177" s="1">
         <v>2515849</v>
@@ -5836,10 +5836,10 @@
         <v>1824</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H178" s="1">
         <v>2519175</v>
@@ -5862,10 +5862,10 @@
         <v>1824</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H179" s="1">
         <v>2519176</v>
@@ -5888,10 +5888,10 @@
         <v>1824</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H180" s="1">
         <v>2524492</v>
@@ -5914,10 +5914,10 @@
         <v>1824</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H181" s="1">
         <v>2525525</v>
@@ -5940,10 +5940,10 @@
         <v>1824</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H182" s="1">
         <v>2528911</v>
@@ -5966,10 +5966,10 @@
         <v>1824</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H183" s="1">
         <v>2536975</v>
@@ -5992,10 +5992,10 @@
         <v>1824</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H184" s="1">
         <v>2540844</v>
@@ -6018,10 +6018,10 @@
         <v>1824</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H185" s="1">
         <v>2543130</v>
@@ -6044,10 +6044,10 @@
         <v>1824</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H186" s="1">
         <v>2543131</v>
@@ -6070,10 +6070,10 @@
         <v>1824</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H187" s="1">
         <v>2545946</v>
@@ -6096,10 +6096,10 @@
         <v>1824</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H188" s="1">
         <v>2548199</v>
@@ -6122,10 +6122,10 @@
         <v>1824</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H189" s="1">
         <v>2550142</v>
@@ -6148,10 +6148,10 @@
         <v>1824</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H190" s="1">
         <v>2553888</v>
@@ -6174,10 +6174,10 @@
         <v>1824</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H191" s="1">
         <v>2554728</v>
@@ -6200,10 +6200,10 @@
         <v>1824</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H192" s="1">
         <v>2558406</v>
@@ -6226,10 +6226,10 @@
         <v>1824</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H193" s="1">
         <v>2560493</v>
@@ -6252,10 +6252,10 @@
         <v>1824</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H194" s="1">
         <v>2563137</v>
@@ -6278,10 +6278,10 @@
         <v>1824</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H195" s="1">
         <v>2565493</v>
@@ -6304,10 +6304,10 @@
         <v>1824</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H196" s="1">
         <v>2566278</v>
@@ -6330,10 +6330,10 @@
         <v>1824</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H197" s="1">
         <v>2567790</v>
@@ -6356,10 +6356,10 @@
         <v>1824</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H198" s="1">
         <v>2569268</v>
@@ -6382,10 +6382,10 @@
         <v>1824</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H199" s="1">
         <v>2570578</v>
@@ -6408,10 +6408,10 @@
         <v>1824</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H200" s="1">
         <v>2574950</v>
@@ -6434,10 +6434,10 @@
         <v>1824</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H201" s="1">
         <v>2578178</v>
@@ -6460,10 +6460,10 @@
         <v>1824</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H202" s="1">
         <v>2580284</v>
@@ -6486,10 +6486,10 @@
         <v>1824</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H203" s="1">
         <v>2583126</v>
@@ -6512,10 +6512,10 @@
         <v>1824</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H204" s="1">
         <v>2584369</v>
@@ -6538,10 +6538,10 @@
         <v>1824</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H205" s="1">
         <v>2585239</v>
@@ -6564,10 +6564,10 @@
         <v>1824</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H206" s="1">
         <v>2586462</v>
@@ -6590,10 +6590,10 @@
         <v>1824</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H207" s="1">
         <v>2587580</v>
@@ -6616,10 +6616,10 @@
         <v>1824</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H208" s="1">
         <v>2590208</v>
@@ -6642,10 +6642,10 @@
         <v>1824</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H209" s="1">
         <v>2592585</v>
@@ -6668,10 +6668,10 @@
         <v>1824</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H210" s="1">
         <v>2593007</v>
@@ -6694,10 +6694,10 @@
         <v>1824</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H211" s="1">
         <v>2595977</v>
@@ -6720,10 +6720,10 @@
         <v>1824</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H212" s="1">
         <v>2598947</v>
@@ -6746,10 +6746,10 @@
         <v>1824</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H213" s="1">
         <v>2603134</v>
@@ -6772,10 +6772,10 @@
         <v>1824</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H214" s="1">
         <v>2604244</v>
@@ -6798,10 +6798,10 @@
         <v>1824</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H215" s="1">
         <v>2466645</v>
@@ -6824,10 +6824,10 @@
         <v>1824</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H216" s="1">
         <v>2468491</v>
@@ -6850,10 +6850,10 @@
         <v>1824</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H217" s="1">
         <v>2471078</v>
@@ -6876,10 +6876,10 @@
         <v>1824</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H218" s="1">
         <v>2474855</v>
@@ -6902,10 +6902,10 @@
         <v>1824</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H219" s="1">
         <v>2476622</v>
@@ -6928,10 +6928,10 @@
         <v>1824</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H220" s="1">
         <v>2481042</v>
@@ -6954,10 +6954,10 @@
         <v>1824</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H221" s="1">
         <v>2482690</v>
@@ -6980,10 +6980,10 @@
         <v>1824</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H222" s="1">
         <v>2482690</v>
@@ -7006,10 +7006,10 @@
         <v>1825</v>
       </c>
       <c r="F223" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G223" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="G223" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="H223" s="1">
         <v>2539262</v>
@@ -7032,10 +7032,10 @@
         <v>1825</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H224" s="1">
         <v>2539291</v>
@@ -7058,10 +7058,10 @@
         <v>1825</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H225" s="1">
         <v>2539870</v>
@@ -7084,10 +7084,10 @@
         <v>1825</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H226" s="1">
         <v>2539871</v>
@@ -7110,10 +7110,10 @@
         <v>1825</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H227" s="1">
         <v>2548199</v>
@@ -7136,10 +7136,10 @@
         <v>1825</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H228" s="1">
         <v>2550142</v>
@@ -7162,10 +7162,10 @@
         <v>1825</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H229" s="1">
         <v>2552874</v>
@@ -7188,10 +7188,10 @@
         <v>1825</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H230" s="1">
         <v>2553888</v>
@@ -7214,10 +7214,10 @@
         <v>1825</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H231" s="1">
         <v>2572488</v>
@@ -7240,10 +7240,10 @@
         <v>1825</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H232" s="1">
         <v>2573244</v>
@@ -7266,10 +7266,10 @@
         <v>1825</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H233" s="1">
         <v>2540844</v>
@@ -7292,10 +7292,10 @@
         <v>1825</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H234" s="1">
         <v>2540845</v>
@@ -7318,10 +7318,10 @@
         <v>1825</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H235" s="1">
         <v>2541637</v>
@@ -7344,10 +7344,10 @@
         <v>1825</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H236" s="1">
         <v>2543130</v>
@@ -7370,10 +7370,10 @@
         <v>1825</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H237" s="1">
         <v>2543131</v>
@@ -7396,10 +7396,10 @@
         <v>1825</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H238" s="1">
         <v>2545012</v>
@@ -7422,10 +7422,10 @@
         <v>1825</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H239" s="1">
         <v>2545946</v>
@@ -7448,10 +7448,10 @@
         <v>1825</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H240" s="1">
         <v>2603134</v>
@@ -7474,10 +7474,10 @@
         <v>1825</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H241" s="1">
         <v>2574950</v>
@@ -7500,10 +7500,10 @@
         <v>1825</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H242" s="1">
         <v>2574073</v>
@@ -7526,10 +7526,10 @@
         <v>1825</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H243" s="1">
         <v>2583126</v>
@@ -7552,10 +7552,10 @@
         <v>1825</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H244" s="1">
         <v>2595977</v>
@@ -7578,10 +7578,10 @@
         <v>1825</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H245" s="1">
         <v>2485612</v>
@@ -7604,10 +7604,10 @@
         <v>1825</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H246" s="1">
         <v>2466115</v>
@@ -7630,10 +7630,10 @@
         <v>1825</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H247" s="1">
         <v>2467474</v>
@@ -7656,10 +7656,10 @@
         <v>1825</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H248" s="1">
         <v>2468491</v>
@@ -7682,10 +7682,10 @@
         <v>1825</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H249" s="1">
         <v>2494166</v>
@@ -7708,10 +7708,10 @@
         <v>1825</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H250" s="1">
         <v>2495418</v>
@@ -7734,10 +7734,10 @@
         <v>1825</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H251" s="1">
         <v>2507256</v>
@@ -7760,10 +7760,10 @@
         <v>1826</v>
       </c>
       <c r="F252" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G252" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="G252" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="H252" s="1">
         <v>2580967</v>
@@ -7786,10 +7786,10 @@
         <v>1826</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H253" s="1">
         <v>2582080</v>
@@ -7812,10 +7812,10 @@
         <v>1826</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H254" s="1">
         <v>2583126</v>
@@ -7838,10 +7838,10 @@
         <v>1826</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H255" s="1">
         <v>2583126</v>
@@ -7864,10 +7864,10 @@
         <v>1826</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H256" s="1">
         <v>2584369</v>
@@ -7890,10 +7890,10 @@
         <v>1826</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H257" s="1">
         <v>2585239</v>
@@ -7916,10 +7916,10 @@
         <v>1826</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H258" s="1">
         <v>2585239</v>
@@ -7942,10 +7942,10 @@
         <v>1826</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H259" s="1">
         <v>2585239</v>
@@ -7968,10 +7968,10 @@
         <v>1826</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H260" s="1">
         <v>2585239</v>
@@ -7994,10 +7994,10 @@
         <v>1826</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H261" s="1">
         <v>2585239</v>
@@ -8020,10 +8020,10 @@
         <v>1826</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H262" s="1">
         <v>2585239</v>
@@ -8046,10 +8046,10 @@
         <v>1826</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H263" s="1">
         <v>2585239</v>
@@ -8072,10 +8072,10 @@
         <v>1826</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H264" s="1">
         <v>2585239</v>
@@ -8098,10 +8098,10 @@
         <v>1826</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H265" s="1">
         <v>2585239</v>
@@ -8124,10 +8124,10 @@
         <v>1826</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H266" s="1">
         <v>2586462</v>
@@ -8150,10 +8150,10 @@
         <v>1826</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H267" s="1">
         <v>2588824</v>
@@ -8176,10 +8176,10 @@
         <v>1826</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H268" s="1">
         <v>2590208</v>
@@ -8202,10 +8202,10 @@
         <v>1826</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H269" s="1">
         <v>2591349</v>
@@ -8228,10 +8228,10 @@
         <v>1826</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H270" s="1">
         <v>2592585</v>
@@ -8254,10 +8254,10 @@
         <v>1826</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H271" s="1">
         <v>2594225</v>
@@ -8280,10 +8280,10 @@
         <v>1826</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H272" s="1">
         <v>2595189</v>
@@ -8306,10 +8306,10 @@
         <v>1826</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H273" s="1">
         <v>2597614</v>
@@ -8332,10 +8332,10 @@
         <v>1826</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H274" s="1">
         <v>2598947</v>
@@ -8358,10 +8358,10 @@
         <v>1826</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H275" s="1">
         <v>2601604</v>
@@ -8384,10 +8384,10 @@
         <v>1826</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H276" s="1">
         <v>2601604</v>
@@ -8410,10 +8410,10 @@
         <v>1826</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H277" s="1">
         <v>2602111</v>
@@ -8436,10 +8436,10 @@
         <v>1826</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H278" s="1">
         <v>2603134</v>
@@ -8462,10 +8462,10 @@
         <v>1826</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H279" s="1">
         <v>2523688</v>
@@ -8488,10 +8488,10 @@
         <v>1826</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H280" s="1">
         <v>2523688</v>
@@ -8514,10 +8514,10 @@
         <v>1826</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H281" s="1">
         <v>2524492</v>
@@ -8540,10 +8540,10 @@
         <v>1826</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H282" s="1">
         <v>2525525</v>
@@ -8566,10 +8566,10 @@
         <v>1826</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H283" s="1">
         <v>2526417</v>
@@ -8592,10 +8592,10 @@
         <v>1826</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H284" s="1">
         <v>2526417</v>
@@ -8618,10 +8618,10 @@
         <v>1826</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H285" s="1">
         <v>2528913</v>
@@ -8644,10 +8644,10 @@
         <v>1826</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H286" s="1">
         <v>2528913</v>
@@ -8670,10 +8670,10 @@
         <v>1826</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H287" s="1">
         <v>2528913</v>
@@ -8696,10 +8696,10 @@
         <v>1826</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H288" s="1">
         <v>2529999</v>
@@ -8722,10 +8722,10 @@
         <v>1826</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H289" s="1">
         <v>2531306</v>
@@ -8748,10 +8748,10 @@
         <v>1826</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H290" s="1">
         <v>2532871</v>
@@ -8774,10 +8774,10 @@
         <v>1826</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H291" s="1">
         <v>2532871</v>
@@ -8800,10 +8800,10 @@
         <v>1826</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H292" s="1">
         <v>2533924</v>
@@ -8826,10 +8826,10 @@
         <v>1826</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H293" s="1">
         <v>2535917</v>
@@ -8852,10 +8852,10 @@
         <v>1826</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H294" s="1">
         <v>2536974</v>
@@ -8878,10 +8878,10 @@
         <v>1826</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H295" s="1">
         <v>2537872</v>
@@ -8904,10 +8904,10 @@
         <v>1826</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H296" s="1">
         <v>2539291</v>
@@ -8930,10 +8930,10 @@
         <v>1826</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H297" s="1">
         <v>2540844</v>

--- a/classification_of_payment_documents/example_table.xlsx
+++ b/classification_of_payment_documents/example_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasialavrova/diplom/bmstu_bachelor_qualification_work/classification_of_payment_documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EB64ED-226A-8C49-A2E9-7D53418DC7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655F5912-8C13-774B-902C-8E413F72024F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="1000" windowWidth="27640" windowHeight="15100" xr2:uid="{0D99C4A0-3FAD-3F4A-9C43-A9C82BCCA544}"/>
   </bookViews>
@@ -831,7 +831,7 @@
     <t>ВЫПЛАТА КД ПО ОБЛИГАЦИЯМ ПАО "ГАЗПРОМ НЕФТЬ" (РАЗМЕР КУП.ДОХОДА НА 1ЦБ - 39.14РУБ.), ГРН 4B02-03-00146-A-001P , КОЛ-ВО ЦБ - 166601ШТ. БЕЗНДС</t>
   </si>
   <si>
-    <t>ЗА 10/02/2020;БЫЧКОВА "АНАСТАСИЯ" ВЛАДИМИРОВНА;ОПЛ. УСЛУГ СТРАХОВАНИЯ ПО ДОГОВОРУ НАКОПИТЕЛЬНОГО СТРАХОВАНИЯ ЖИЗНИ №0340780408052 ОТ 15 ИЮНЯ 2018</t>
+    <t>ЗА 10/02/2020;БЫЧКОВА АНАСТАСИЯ ВЛАДИМИРОВНА;ОПЛ. УСЛУГ СТРАХОВАНИЯ ПО ДОГОВОРУ НАКОПИТЕЛЬНОГО СТРАХОВАНИЯ ЖИЗНИ №0340780408052 ОТ 15 ИЮНЯ 2018</t>
   </si>
 </sst>
 </file>
@@ -1203,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0A4823-B8C1-F54A-A299-81C21B5A1A62}">
   <dimension ref="A1:H297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="G142" sqref="G142"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
